--- a/capiq_data/in_process_data/IQ4204816.xlsx
+++ b/capiq_data/in_process_data/IQ4204816.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20A47AC-D5DC-4028-BA88-D12DFA77F799}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5E05A9-9540-4638-A40B-7DFB559F51DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"01ebcf5c-15ba-4ed5-906d-c33e134a576f"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"85142d1e-68fe-4f2c-9ece-f3e89378b8e1"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$80</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$80</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$80</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$80</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$80</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$80</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$80</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$80</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$80</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$80</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$80</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$80</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$80</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$80</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$80</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$80</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$80</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$80</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$80</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$80</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$80</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$80</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$80</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$80</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$80</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$80</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$80</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,120 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +847,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>37072</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>95.144000000000005</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1651.296</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>940.16700000000003</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>720.42700000000002</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>2260.87</v>
+        <v>230.54410999999999</v>
       </c>
       <c r="H2">
-        <v>5121.5680000000002</v>
+        <v>238.26786000000001</v>
       </c>
       <c r="I2">
-        <v>445.33699999999999</v>
+        <v>7.7688699999999997</v>
       </c>
       <c r="J2">
-        <v>1851.9010000000001</v>
+        <v>225.64167</v>
       </c>
       <c r="K2">
-        <v>471.36700000000002</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +886,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1956.768</v>
+        <v>9.4863700000000009</v>
       </c>
       <c r="O2">
-        <v>4055.7730000000001</v>
+        <v>235.12804</v>
       </c>
       <c r="P2">
-        <v>2515.567</v>
+        <v>225.64167</v>
       </c>
       <c r="Q2">
-        <v>-262.101</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>37072</v>
       </c>
       <c r="S2">
-        <v>31000</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>1065.7950000000001</v>
+        <v>3.1398100000000002</v>
       </c>
       <c r="U2">
-        <v>506.57400000000001</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>291.66300000000001</v>
+        <v>0</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-511.20100000000002</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-11.263999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>95.144000000000005</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>37164</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>34.369</v>
+        <v>1.978</v>
       </c>
       <c r="D3">
-        <v>1185.105</v>
+        <v>225.566</v>
       </c>
       <c r="E3">
-        <v>889.07600000000002</v>
+        <v>151.92400000000001</v>
       </c>
       <c r="F3">
-        <v>471.35</v>
+        <v>116.471</v>
       </c>
       <c r="G3">
-        <v>1969.0329999999999</v>
+        <v>282.613</v>
       </c>
       <c r="H3">
-        <v>4792.8980000000001</v>
+        <v>1219.6379999999999</v>
       </c>
       <c r="I3">
-        <v>429.52600000000001</v>
+        <v>93.988</v>
       </c>
       <c r="J3">
-        <v>1808.2919999999999</v>
+        <v>524.721</v>
       </c>
       <c r="K3">
-        <v>343.94200000000001</v>
+        <v>104.79900000000001</v>
       </c>
       <c r="L3">
-        <v>-187</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-68.826999999999998</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1581.6030000000001</v>
+        <v>331.42</v>
       </c>
       <c r="O3">
-        <v>3643.7530000000002</v>
+        <v>972.17499999999995</v>
       </c>
       <c r="P3">
-        <v>2328.924</v>
+        <v>639.66399999999999</v>
       </c>
       <c r="Q3">
-        <v>-78.929000000000002</v>
+        <v>-218.95</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>37164</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1149.145</v>
+        <v>247.46299999999999</v>
       </c>
       <c r="U3">
-        <v>427.64499999999998</v>
+        <v>24.210999999999999</v>
       </c>
       <c r="V3">
-        <v>-113.88200000000001</v>
+        <v>25.088000000000001</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-39.164000000000001</v>
+        <v>-31.702000000000002</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>3.488</v>
+        <v>-1.0329999999999999</v>
       </c>
       <c r="AA3">
-        <v>34.369</v>
+        <v>1.978</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37256</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>61.222999999999999</v>
+        <v>19.6632</v>
       </c>
       <c r="D4">
-        <v>1422.2180000000001</v>
+        <v>449.82760000000002</v>
       </c>
       <c r="E4">
-        <v>968.58500000000004</v>
+        <v>156.434</v>
       </c>
       <c r="F4">
-        <v>582.39599999999996</v>
+        <v>238.8058</v>
       </c>
       <c r="G4">
-        <v>2379.0540000000001</v>
+        <v>369.64699999999999</v>
       </c>
       <c r="H4">
-        <v>5282.732</v>
+        <v>1354.5119999999999</v>
       </c>
       <c r="I4">
-        <v>441.79899999999998</v>
+        <v>82.981999999999999</v>
       </c>
       <c r="J4">
-        <v>2134.2669999999998</v>
+        <v>522.06299999999999</v>
       </c>
       <c r="K4">
-        <v>413.726</v>
+        <v>155.61799999999999</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,164 +1052,164 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1630.836</v>
+        <v>423.86500000000001</v>
       </c>
       <c r="O4">
-        <v>4043.0740000000001</v>
+        <v>1097.693</v>
       </c>
       <c r="P4">
-        <v>2743.6289999999999</v>
+        <v>687.904</v>
       </c>
       <c r="Q4">
-        <v>324.464</v>
+        <v>41.996600000000001</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37256</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>9300</v>
       </c>
       <c r="T4">
-        <v>1239.6579999999999</v>
+        <v>256.81900000000002</v>
       </c>
       <c r="U4">
-        <v>752.10900000000004</v>
+        <v>57.45</v>
       </c>
       <c r="V4">
-        <v>-42.508000000000003</v>
+        <v>84.512799999999999</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>378.80700000000002</v>
+        <v>58.800199999999997</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>14.406000000000001</v>
+        <v>-0.26419999999999999</v>
       </c>
       <c r="AA4">
-        <v>61.222999999999999</v>
+        <v>19.6632</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37346</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>63.807000000000002</v>
+        <v>-6.0949999999999998</v>
       </c>
       <c r="D5">
-        <v>1534.463</v>
+        <v>223.99</v>
       </c>
       <c r="E5">
-        <v>997.93100000000004</v>
+        <v>128.94200000000001</v>
       </c>
       <c r="F5">
-        <v>639.85599999999999</v>
+        <v>124.93600000000001</v>
       </c>
       <c r="G5">
-        <v>3225.9110000000001</v>
+        <v>232.89099999999999</v>
       </c>
       <c r="H5">
-        <v>6415.1030000000001</v>
+        <v>1221.6569999999999</v>
       </c>
       <c r="I5">
-        <v>495.83300000000003</v>
+        <v>90.05</v>
       </c>
       <c r="J5">
-        <v>2466.3270000000002</v>
+        <v>517.08199999999999</v>
       </c>
       <c r="K5">
-        <v>718.06600000000003</v>
+        <v>116.747</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>-5.5330000000000004</v>
       </c>
       <c r="N5">
-        <v>2228.1709999999998</v>
+        <v>295.745</v>
       </c>
       <c r="O5">
-        <v>5057.0410000000002</v>
+        <v>966.58600000000001</v>
       </c>
       <c r="P5">
-        <v>3396.4670000000001</v>
+        <v>644.12</v>
       </c>
       <c r="Q5">
-        <v>-89.515000000000001</v>
+        <v>-37.453000000000003</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37346</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1358.0619999999999</v>
+        <v>255.071</v>
       </c>
       <c r="U5">
-        <v>662.59400000000005</v>
+        <v>19.997</v>
       </c>
       <c r="V5">
-        <v>260.51400000000001</v>
+        <v>-56.545999999999999</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>259.87799999999999</v>
+        <v>31.087</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>1.909</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>63.807000000000002</v>
+        <v>-6.0949999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37437</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>79.763000000000005</v>
+        <v>7.2889999999999997</v>
       </c>
       <c r="D6">
-        <v>1763.625</v>
+        <v>284.89299999999997</v>
       </c>
       <c r="E6">
-        <v>1135.3710000000001</v>
+        <v>137.42699999999999</v>
       </c>
       <c r="F6">
-        <v>774.67899999999997</v>
+        <v>156.11099999999999</v>
       </c>
       <c r="G6">
-        <v>3550.047</v>
+        <v>352.77699999999999</v>
       </c>
       <c r="H6">
-        <v>7219.143</v>
+        <v>1351.923</v>
       </c>
       <c r="I6">
-        <v>574.13599999999997</v>
+        <v>80.331999999999994</v>
       </c>
       <c r="J6">
-        <v>2611.1869999999999</v>
+        <v>515.28200000000004</v>
       </c>
       <c r="K6">
-        <v>758.20299999999997</v>
+        <v>221.49299999999999</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,164 +1218,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2680.6480000000001</v>
+        <v>416.81900000000002</v>
       </c>
       <c r="O6">
-        <v>5801.98</v>
+        <v>1079.125</v>
       </c>
       <c r="P6">
-        <v>3583.348</v>
+        <v>747.00599999999997</v>
       </c>
       <c r="Q6">
-        <v>430.58800000000002</v>
+        <v>-1.786</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37437</v>
       </c>
       <c r="S6">
-        <v>34000</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>1417.163</v>
+        <v>272.798</v>
       </c>
       <c r="U6">
-        <v>1093.182</v>
+        <v>18.210999999999999</v>
       </c>
       <c r="V6">
-        <v>257.09500000000003</v>
+        <v>16.414000000000001</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>111.804</v>
+        <v>-13.177</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>38.280999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>79.763000000000005</v>
+        <v>7.2889999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37529</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>26.975000000000001</v>
+        <v>2.4359999999999999</v>
       </c>
       <c r="D7">
-        <v>1349.989</v>
+        <v>284.928</v>
       </c>
       <c r="E7">
-        <v>1075.4949999999999</v>
+        <v>137.61600000000001</v>
       </c>
       <c r="F7">
-        <v>562.43299999999999</v>
+        <v>149.25800000000001</v>
       </c>
       <c r="G7">
-        <v>2781.7049999999999</v>
+        <v>273.66899999999998</v>
       </c>
       <c r="H7">
-        <v>6539.5569999999998</v>
+        <v>1254.683</v>
       </c>
       <c r="I7">
-        <v>524.23299999999995</v>
+        <v>77.867000000000004</v>
       </c>
       <c r="J7">
-        <v>2616.7510000000002</v>
+        <v>513.16</v>
       </c>
       <c r="K7">
-        <v>445.18099999999998</v>
+        <v>123.93600000000001</v>
       </c>
       <c r="L7">
-        <v>-10.795</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>-19.34</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1992.6790000000001</v>
+        <v>331.46600000000001</v>
       </c>
       <c r="O7">
-        <v>5137.2139999999999</v>
+        <v>992.51800000000003</v>
       </c>
       <c r="P7">
-        <v>3339.2829999999999</v>
+        <v>647.61500000000001</v>
       </c>
       <c r="Q7">
-        <v>-389.245</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37529</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>1402.3430000000001</v>
+        <v>262.16500000000002</v>
       </c>
       <c r="U7">
-        <v>703.93700000000001</v>
+        <v>18.484000000000002</v>
       </c>
       <c r="V7">
-        <v>-298.94900000000001</v>
+        <v>21.161999999999999</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-22.484999999999999</v>
+        <v>-19.975000000000001</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-8.6750000000000007</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>26.975000000000001</v>
+        <v>1.881</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37621</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>75.873000000000005</v>
+        <v>15.097</v>
       </c>
       <c r="D8">
-        <v>1601.117</v>
+        <v>376.46600000000001</v>
       </c>
       <c r="E8">
-        <v>1092.9639999999999</v>
+        <v>166.21299999999999</v>
       </c>
       <c r="F8">
-        <v>692.97400000000005</v>
+        <v>192.87899999999999</v>
       </c>
       <c r="G8">
-        <v>2828.6979999999999</v>
+        <v>345.94</v>
       </c>
       <c r="H8">
-        <v>6576.3950000000004</v>
+        <v>1324.876</v>
       </c>
       <c r="I8">
-        <v>496.12700000000001</v>
+        <v>102.41500000000001</v>
       </c>
       <c r="J8">
-        <v>2619.567</v>
+        <v>499.00400000000002</v>
       </c>
       <c r="K8">
-        <v>474.77499999999998</v>
+        <v>123.194</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,164 +1384,164 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1978.4580000000001</v>
+        <v>431.08699999999999</v>
       </c>
       <c r="O8">
-        <v>5141.4530000000004</v>
+        <v>1067.92</v>
       </c>
       <c r="P8">
-        <v>3347.181</v>
+        <v>632.90899999999999</v>
       </c>
       <c r="Q8">
-        <v>27.265000000000001</v>
+        <v>61.216999999999999</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37621</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="T8">
-        <v>1434.942</v>
+        <v>256.95600000000002</v>
       </c>
       <c r="U8">
-        <v>731.202</v>
+        <v>79.700999999999993</v>
       </c>
       <c r="V8">
-        <v>97.29</v>
+        <v>83.852000000000004</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-3.552</v>
+        <v>-15.773</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-31.297999999999998</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>75.873000000000005</v>
+        <v>15.097</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37711</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>39.709000000000003</v>
+        <v>-1.347</v>
       </c>
       <c r="D9">
-        <v>1557.1469999999999</v>
+        <v>263.72399999999999</v>
       </c>
       <c r="E9">
-        <v>1127.992</v>
+        <v>144.36500000000001</v>
       </c>
       <c r="F9">
-        <v>648.88</v>
+        <v>140.125</v>
       </c>
       <c r="G9">
-        <v>3037.2750000000001</v>
+        <v>223.416</v>
       </c>
       <c r="H9">
-        <v>6768.777</v>
+        <v>1196.296</v>
       </c>
       <c r="I9">
-        <v>515.36900000000003</v>
+        <v>102.89100000000001</v>
       </c>
       <c r="J9">
-        <v>2546.7330000000002</v>
+        <v>509.26600000000002</v>
       </c>
       <c r="K9">
-        <v>530.98</v>
+        <v>73.893000000000001</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>-20.25</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>-2.3380000000000001</v>
       </c>
       <c r="N9">
-        <v>2144.2559999999999</v>
+        <v>278.67700000000002</v>
       </c>
       <c r="O9">
-        <v>5249.6710000000003</v>
+        <v>939.54</v>
       </c>
       <c r="P9">
-        <v>3346.4250000000002</v>
+        <v>594.09199999999998</v>
       </c>
       <c r="Q9">
-        <v>45.058</v>
+        <v>-60.331000000000003</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37711</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>1519.106</v>
+        <v>256.75599999999997</v>
       </c>
       <c r="U9">
-        <v>776.26</v>
+        <v>19.37</v>
       </c>
       <c r="V9">
-        <v>81.722999999999999</v>
+        <v>-70.760999999999996</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-21.738</v>
+        <v>11.756</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-2.9209999999999998</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>39.709000000000003</v>
+        <v>-1.347</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37802</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>5.1719999999999997</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>321.71699999999998</v>
       </c>
       <c r="E10">
-        <v>1262.8230000000001</v>
+        <v>154.22399999999999</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>168.65100000000001</v>
       </c>
       <c r="G10">
-        <v>4084.55</v>
+        <v>369.00599999999997</v>
       </c>
       <c r="H10">
-        <v>7809.5420000000004</v>
+        <v>1561.9010000000001</v>
       </c>
       <c r="I10">
-        <v>582.29399999999998</v>
+        <v>98.096000000000004</v>
       </c>
       <c r="J10">
-        <v>2543.7069999999999</v>
+        <v>707.73199999999997</v>
       </c>
       <c r="K10">
-        <v>1099.3610000000001</v>
+        <v>205.63900000000001</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,37 +1550,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2972.2930000000001</v>
+        <v>425.839</v>
       </c>
       <c r="O10">
-        <v>6127.73</v>
+        <v>1303.1479999999999</v>
       </c>
       <c r="P10">
-        <v>3751.4360000000001</v>
+        <v>924.13099999999997</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>3.6480000000000001</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37802</v>
       </c>
       <c r="S10">
-        <v>37000</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>1681.8119999999999</v>
+        <v>258.75299999999999</v>
       </c>
       <c r="U10">
-        <v>1089.297</v>
+        <v>23.018000000000001</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>-3.794</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>2.415</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,125 +1589,125 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>5.1719999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37894</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>37.545999999999999</v>
+        <v>-28.445</v>
       </c>
       <c r="D11">
-        <v>1475.0630000000001</v>
+        <v>423.37599999999998</v>
       </c>
       <c r="E11">
-        <v>1206.144</v>
+        <v>250.608</v>
       </c>
       <c r="F11">
-        <v>613.84699999999998</v>
+        <v>215.55600000000001</v>
       </c>
       <c r="G11">
-        <v>3232.8330000000001</v>
+        <v>607.53499999999997</v>
       </c>
       <c r="H11">
-        <v>6887.64</v>
+        <v>1967.0239999999999</v>
       </c>
       <c r="I11">
-        <v>552.14</v>
+        <v>137.29499999999999</v>
       </c>
       <c r="J11">
-        <v>2130.6210000000001</v>
+        <v>819.37599999999998</v>
       </c>
       <c r="K11">
-        <v>945.46500000000003</v>
+        <v>163.73400000000001</v>
       </c>
       <c r="L11">
-        <v>-86.236000000000004</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>-1696.788</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>2453.5349999999999</v>
+        <v>567.05600000000004</v>
       </c>
       <c r="O11">
-        <v>5181.8530000000001</v>
+        <v>1611.6220000000001</v>
       </c>
       <c r="P11">
-        <v>3188.645</v>
+        <v>994.88699999999994</v>
       </c>
       <c r="Q11">
-        <v>-570.59699999999998</v>
+        <v>62.475999999999999</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37894</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>1705.787</v>
+        <v>355.40199999999999</v>
       </c>
       <c r="U11">
-        <v>518.70000000000005</v>
+        <v>85.494</v>
       </c>
       <c r="V11">
-        <v>-79.885999999999996</v>
+        <v>3.8410000000000002</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-496.66500000000002</v>
+        <v>314.327</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-15.196999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>37.545999999999999</v>
+        <v>-28.445</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37986</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>69.902000000000001</v>
+        <v>-10.084</v>
       </c>
       <c r="D12">
-        <v>1742.0139999999999</v>
+        <v>621.25699999999995</v>
       </c>
       <c r="E12">
-        <v>1222.364</v>
+        <v>322.416</v>
       </c>
       <c r="F12">
-        <v>723.18700000000001</v>
+        <v>312.01400000000001</v>
       </c>
       <c r="G12">
-        <v>2799.2249999999999</v>
+        <v>838.98199999999997</v>
       </c>
       <c r="H12">
-        <v>6348.2879999999996</v>
+        <v>2213.4810000000002</v>
       </c>
       <c r="I12">
-        <v>562.09900000000005</v>
+        <v>189.78700000000001</v>
       </c>
       <c r="J12">
-        <v>1948.35</v>
+        <v>791.42</v>
       </c>
       <c r="K12">
-        <v>680.755</v>
+        <v>270.137</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,164 +1716,164 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2133.096</v>
+        <v>839.50400000000002</v>
       </c>
       <c r="O12">
-        <v>4636.8389999999999</v>
+        <v>1873.896</v>
       </c>
       <c r="P12">
-        <v>2702.39</v>
+        <v>1072.8420000000001</v>
       </c>
       <c r="Q12">
-        <v>-33.204999999999998</v>
+        <v>78.387</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37986</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>13500</v>
       </c>
       <c r="T12">
-        <v>1711.4490000000001</v>
+        <v>339.58499999999998</v>
       </c>
       <c r="U12">
-        <v>485.495</v>
+        <v>163.881</v>
       </c>
       <c r="V12">
-        <v>164.55699999999999</v>
+        <v>147.99299999999999</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-243.32400000000001</v>
+        <v>-24.834</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>12.916</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>69.902000000000001</v>
+        <v>-10.084</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>38077</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>94.444000000000003</v>
+        <v>-16.568000000000001</v>
       </c>
       <c r="D13">
-        <v>1733.866</v>
+        <v>440.99200000000002</v>
       </c>
       <c r="E13">
-        <v>1234</v>
+        <v>272.57400000000001</v>
       </c>
       <c r="F13">
-        <v>701.51800000000003</v>
+        <v>216.77</v>
       </c>
       <c r="G13">
-        <v>2558.96</v>
+        <v>542.76</v>
       </c>
       <c r="H13">
-        <v>6177.335</v>
+        <v>1919.7349999999999</v>
       </c>
       <c r="I13">
-        <v>536.74300000000005</v>
+        <v>188.72499999999999</v>
       </c>
       <c r="J13">
-        <v>1911.816</v>
+        <v>790.49199999999996</v>
       </c>
       <c r="K13">
-        <v>319.19200000000001</v>
+        <v>113.821</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>-34.25</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>-15.302</v>
       </c>
       <c r="N13">
-        <v>1842.7270000000001</v>
+        <v>553.59799999999996</v>
       </c>
       <c r="O13">
-        <v>4341.0280000000002</v>
+        <v>1600.7149999999999</v>
       </c>
       <c r="P13">
-        <v>2331.8000000000002</v>
+        <v>915.56500000000005</v>
       </c>
       <c r="Q13">
-        <v>17.126000000000001</v>
+        <v>-109.627</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>38077</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>1836.307</v>
+        <v>319.02</v>
       </c>
       <c r="U13">
-        <v>502.62099999999998</v>
+        <v>54.253999999999998</v>
       </c>
       <c r="V13">
-        <v>149.96899999999999</v>
+        <v>-86.686000000000007</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-99.655000000000001</v>
+        <v>-2.2029999999999998</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>7.5289999999999999</v>
+        <v>-2.1349999999999998</v>
       </c>
       <c r="AA13">
-        <v>94.444000000000003</v>
+        <v>-16.568000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>38168</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>114.646</v>
+        <v>2.9649999999999999</v>
       </c>
       <c r="D14">
-        <v>2233.8510000000001</v>
+        <v>550.91600000000005</v>
       </c>
       <c r="E14">
-        <v>1486.489</v>
+        <v>295.25599999999997</v>
       </c>
       <c r="F14">
-        <v>956.85299999999995</v>
+        <v>278.30500000000001</v>
       </c>
       <c r="G14">
-        <v>2879.8119999999999</v>
+        <v>833.95500000000004</v>
       </c>
       <c r="H14">
-        <v>6998.4139999999998</v>
+        <v>2219.076</v>
       </c>
       <c r="I14">
-        <v>817.51900000000001</v>
+        <v>181.53100000000001</v>
       </c>
       <c r="J14">
-        <v>1895.924</v>
+        <v>752.35</v>
       </c>
       <c r="K14">
-        <v>517.09699999999998</v>
+        <v>248.553</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1882,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2605.7399999999998</v>
+        <v>729.59</v>
       </c>
       <c r="O14">
-        <v>5062.4080000000004</v>
+        <v>1757.7159999999999</v>
       </c>
       <c r="P14">
-        <v>2517.2829999999999</v>
+        <v>1013.932</v>
       </c>
       <c r="Q14">
-        <v>-10.709</v>
+        <v>125.33799999999999</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>38168</v>
       </c>
       <c r="S14">
-        <v>44000</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>1936.0060000000001</v>
+        <v>461.36</v>
       </c>
       <c r="U14">
-        <v>491.91199999999998</v>
+        <v>179.59200000000001</v>
       </c>
       <c r="V14">
-        <v>510.46800000000002</v>
+        <v>51.436</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-26.637</v>
+        <v>84.89</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>31.965</v>
+        <v>-4.7009999999999996</v>
       </c>
       <c r="AA14">
-        <v>114.646</v>
+        <v>2.9649999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38260</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>67.662999999999997</v>
+        <v>11.895</v>
       </c>
       <c r="D15">
-        <v>1860.8420000000001</v>
+        <v>574.99900000000002</v>
       </c>
       <c r="E15">
-        <v>1415.383</v>
+        <v>276.34300000000002</v>
       </c>
       <c r="F15">
-        <v>699.38199999999995</v>
+        <v>274.28800000000001</v>
       </c>
       <c r="G15">
-        <v>2762.2370000000001</v>
+        <v>675.40099999999995</v>
       </c>
       <c r="H15">
-        <v>6843.3580000000002</v>
+        <v>2007.347</v>
       </c>
       <c r="I15">
-        <v>692.28700000000003</v>
+        <v>170.13</v>
       </c>
       <c r="J15">
-        <v>1856.479</v>
+        <v>604.04899999999998</v>
       </c>
       <c r="K15">
-        <v>666.07600000000002</v>
+        <v>138.23599999999999</v>
       </c>
       <c r="L15">
-        <v>-401.11200000000002</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>-10.819000000000001</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>2379.614</v>
+        <v>634.67499999999995</v>
       </c>
       <c r="O15">
-        <v>4815.1000000000004</v>
+        <v>1522.432</v>
       </c>
       <c r="P15">
-        <v>2610.701</v>
+        <v>755.30600000000004</v>
       </c>
       <c r="Q15">
-        <v>-63.674999999999997</v>
+        <v>-31.667000000000002</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38260</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>2028.258</v>
+        <v>484.91500000000002</v>
       </c>
       <c r="U15">
-        <v>428.23700000000002</v>
+        <v>147.92500000000001</v>
       </c>
       <c r="V15">
-        <v>-269.96600000000001</v>
+        <v>87.588999999999999</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>208.328</v>
+        <v>-144.40799999999999</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>5.9080000000000004</v>
+        <v>-6.5119999999999996</v>
       </c>
       <c r="AA15">
-        <v>67.662999999999997</v>
+        <v>11.895</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38352</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>105.464</v>
+        <v>66.433000000000007</v>
       </c>
       <c r="D16">
-        <v>2126.806</v>
+        <v>798.18899999999996</v>
       </c>
       <c r="E16">
-        <v>1638.1969999999999</v>
+        <v>394.06200000000001</v>
       </c>
       <c r="F16">
-        <v>812.33299999999997</v>
+        <v>391.96800000000002</v>
       </c>
       <c r="G16">
-        <v>3338.471</v>
+        <v>863.69500000000005</v>
       </c>
       <c r="H16">
-        <v>7471.7709999999997</v>
+        <v>2271.636</v>
       </c>
       <c r="I16">
-        <v>688.69399999999996</v>
+        <v>185.87700000000001</v>
       </c>
       <c r="J16">
-        <v>1861.903</v>
+        <v>600.88400000000001</v>
       </c>
       <c r="K16">
-        <v>1074.037</v>
+        <v>159.96899999999999</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,164 +2048,164 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2875.9639999999999</v>
+        <v>804.98</v>
       </c>
       <c r="O16">
-        <v>5297.4960000000001</v>
+        <v>1705.7629999999999</v>
       </c>
       <c r="P16">
-        <v>3001.6950000000002</v>
+        <v>772.80700000000002</v>
       </c>
       <c r="Q16">
-        <v>-46.371000000000002</v>
+        <v>108.971</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38352</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>13500</v>
       </c>
       <c r="T16">
-        <v>2174.2750000000001</v>
+        <v>565.87300000000005</v>
       </c>
       <c r="U16">
-        <v>381.86599999999999</v>
+        <v>256.89600000000002</v>
       </c>
       <c r="V16">
-        <v>45.981999999999999</v>
+        <v>134.86799999999999</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-97.605000000000004</v>
+        <v>-5.6449999999999996</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-14.911</v>
+        <v>4.4189999999999996</v>
       </c>
       <c r="AA16">
-        <v>105.464</v>
+        <v>66.433000000000007</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38442</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>107.099</v>
+        <v>14.571999999999999</v>
       </c>
       <c r="D17">
-        <v>2275.076</v>
+        <v>538.26599999999996</v>
       </c>
       <c r="E17">
-        <v>1608.6279999999999</v>
+        <v>293.84399999999999</v>
       </c>
       <c r="F17">
-        <v>846.09</v>
+        <v>270.22000000000003</v>
       </c>
       <c r="G17">
-        <v>3461.0369999999998</v>
+        <v>583.12699999999995</v>
       </c>
       <c r="H17">
-        <v>7529.9539999999997</v>
+        <v>2000.2650000000001</v>
       </c>
       <c r="I17">
-        <v>710.40800000000002</v>
+        <v>166.40799999999999</v>
       </c>
       <c r="J17">
-        <v>2110.0500000000002</v>
+        <v>571.84900000000005</v>
       </c>
       <c r="K17">
-        <v>785.37</v>
+        <v>66.353999999999999</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>-0.30599999999999999</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>-29.355</v>
       </c>
       <c r="N17">
-        <v>2677.009</v>
+        <v>551.91300000000001</v>
       </c>
       <c r="O17">
-        <v>5347.116</v>
+        <v>1414.107</v>
       </c>
       <c r="P17">
-        <v>2960.942</v>
+        <v>650.14200000000005</v>
       </c>
       <c r="Q17">
-        <v>233.49199999999999</v>
+        <v>-99.111999999999995</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38442</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>2182.8380000000002</v>
+        <v>586.15800000000002</v>
       </c>
       <c r="U17">
-        <v>615.35799999999995</v>
+        <v>157.78399999999999</v>
       </c>
       <c r="V17">
-        <v>292.46199999999999</v>
+        <v>-57.645000000000003</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>71.433999999999997</v>
+        <v>-27.132999999999999</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>24.251000000000001</v>
+        <v>-7.4029999999999996</v>
       </c>
       <c r="AA17">
-        <v>107.099</v>
+        <v>14.571999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38533</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>204.27699999999999</v>
+        <v>50.420999999999999</v>
       </c>
       <c r="D18">
-        <v>2787.194</v>
+        <v>672.16300000000001</v>
       </c>
       <c r="E18">
-        <v>1736.229</v>
+        <v>320.03399999999999</v>
       </c>
       <c r="F18">
-        <v>1080.8510000000001</v>
+        <v>333.47199999999998</v>
       </c>
       <c r="G18">
-        <v>3371.7689999999998</v>
+        <v>800.58199999999999</v>
       </c>
       <c r="H18">
-        <v>7568.01</v>
+        <v>2241.5659999999998</v>
       </c>
       <c r="I18">
-        <v>827.53</v>
+        <v>153.303</v>
       </c>
       <c r="J18">
-        <v>1808.605</v>
+        <v>559.29399999999998</v>
       </c>
       <c r="K18">
-        <v>506.05</v>
+        <v>212.035</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2214,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2928.7649999999999</v>
+        <v>747.83699999999999</v>
       </c>
       <c r="O18">
-        <v>5266.6120000000001</v>
+        <v>1600.4110000000001</v>
       </c>
       <c r="P18">
-        <v>2357.0619999999999</v>
+        <v>783.25599999999997</v>
       </c>
       <c r="Q18">
-        <v>125.526</v>
+        <v>34.433</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38533</v>
       </c>
       <c r="S18">
-        <v>52000</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>2301.3980000000001</v>
+        <v>641.15499999999997</v>
       </c>
       <c r="U18">
-        <v>740.88400000000001</v>
+        <v>192.21700000000001</v>
       </c>
       <c r="V18">
-        <v>593.30200000000002</v>
+        <v>68.846000000000004</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>-414.226</v>
+        <v>6.44</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>28.170999999999999</v>
+        <v>-4.7859999999999996</v>
       </c>
       <c r="AA18">
-        <v>204.27699999999999</v>
+        <v>50.420999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38625</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>92.936999999999998</v>
+        <v>56.936</v>
       </c>
       <c r="D19">
-        <v>2052.5030000000002</v>
+        <v>744.19799999999998</v>
       </c>
       <c r="E19">
-        <v>1537.1</v>
+        <v>355.88200000000001</v>
       </c>
       <c r="F19">
-        <v>761.726</v>
+        <v>363.255</v>
       </c>
       <c r="G19">
-        <v>3593.8789999999999</v>
+        <v>906.98500000000001</v>
       </c>
       <c r="H19">
-        <v>7625.66</v>
+        <v>2380.701</v>
       </c>
       <c r="I19">
-        <v>702.125</v>
+        <v>193.00899999999999</v>
       </c>
       <c r="J19">
-        <v>1762.7940000000001</v>
+        <v>552.04</v>
       </c>
       <c r="K19">
-        <v>1175.9069999999999</v>
+        <v>192.679</v>
       </c>
       <c r="L19">
-        <v>-158.512</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>-645.61300000000006</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>2972.989</v>
+        <v>826.69899999999996</v>
       </c>
       <c r="O19">
-        <v>5320.6390000000001</v>
+        <v>1671.2270000000001</v>
       </c>
       <c r="P19">
-        <v>2977.25</v>
+        <v>756.63</v>
       </c>
       <c r="Q19">
-        <v>-361.85599999999999</v>
+        <v>92.353999999999999</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38625</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>2305.0210000000002</v>
+        <v>709.47400000000005</v>
       </c>
       <c r="U19">
-        <v>379.02800000000002</v>
+        <v>284.57100000000003</v>
       </c>
       <c r="V19">
-        <v>-179.85</v>
+        <v>125.57899999999999</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>-60.435000000000002</v>
+        <v>3.379</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>13.557</v>
+        <v>5.6689999999999996</v>
       </c>
       <c r="AA19">
-        <v>92.936999999999998</v>
+        <v>56.936</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38717</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>125.029</v>
+        <v>95.412000000000006</v>
       </c>
       <c r="D20">
-        <v>2390.5059999999999</v>
+        <v>1239.3989999999999</v>
       </c>
       <c r="E20">
-        <v>1604.62</v>
+        <v>483.17500000000001</v>
       </c>
       <c r="F20">
-        <v>902.53200000000004</v>
+        <v>473.60700000000003</v>
       </c>
       <c r="G20">
-        <v>3342.9560000000001</v>
+        <v>1284.9639999999999</v>
       </c>
       <c r="H20">
-        <v>7460.259</v>
+        <v>2815.672</v>
       </c>
       <c r="I20">
-        <v>764.524</v>
+        <v>254.08500000000001</v>
       </c>
       <c r="J20">
-        <v>1759.4559999999999</v>
+        <v>549.15599999999995</v>
       </c>
       <c r="K20">
-        <v>744.48699999999997</v>
+        <v>272.15199999999999</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,164 +2380,164 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2594.7739999999999</v>
+        <v>1137.8030000000001</v>
       </c>
       <c r="O20">
-        <v>4956.7309999999998</v>
+        <v>2015.163</v>
       </c>
       <c r="P20">
-        <v>2519.462</v>
+        <v>833.221</v>
       </c>
       <c r="Q20">
-        <v>-42.606000000000002</v>
+        <v>164.71799999999999</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38717</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>14500</v>
       </c>
       <c r="T20">
-        <v>2503.5279999999998</v>
+        <v>800.50900000000001</v>
       </c>
       <c r="U20">
-        <v>336.42200000000003</v>
+        <v>449.28899999999999</v>
       </c>
       <c r="V20">
-        <v>137.65899999999999</v>
+        <v>222.876</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>-120.03400000000001</v>
+        <v>-29.957999999999998</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-12.749000000000001</v>
+        <v>-4.6550000000000002</v>
       </c>
       <c r="AA20">
-        <v>125.029</v>
+        <v>95.412000000000006</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38807</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>149.12299999999999</v>
+        <v>36.909999999999997</v>
       </c>
       <c r="D21">
-        <v>2712.5590000000002</v>
+        <v>751.27200000000005</v>
       </c>
       <c r="E21">
-        <v>2275.0250000000001</v>
+        <v>427.399</v>
       </c>
       <c r="F21">
-        <v>938.899</v>
+        <v>339.64600000000002</v>
       </c>
       <c r="G21">
-        <v>3979.6469999999999</v>
+        <v>884.49900000000002</v>
       </c>
       <c r="H21">
-        <v>9555.4639999999999</v>
+        <v>2485.779</v>
       </c>
       <c r="I21">
-        <v>1320.325</v>
+        <v>203.02500000000001</v>
       </c>
       <c r="J21">
-        <v>2683.7179999999998</v>
+        <v>545.59699999999998</v>
       </c>
       <c r="K21">
-        <v>997.48800000000006</v>
+        <v>109.943</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>-2.95</v>
       </c>
       <c r="N21">
-        <v>3604.2629999999999</v>
+        <v>724.18100000000004</v>
       </c>
       <c r="O21">
-        <v>6965.9390000000003</v>
+        <v>1622.86</v>
       </c>
       <c r="P21">
-        <v>3714.8359999999998</v>
+        <v>668.06299999999999</v>
       </c>
       <c r="Q21">
-        <v>103.935</v>
+        <v>-196.2</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38807</v>
       </c>
       <c r="S21">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>2589.5250000000001</v>
+        <v>862.91899999999998</v>
       </c>
       <c r="U21">
-        <v>440.35700000000003</v>
+        <v>253.089</v>
       </c>
       <c r="V21">
-        <v>184.601</v>
+        <v>-184.75800000000001</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>1390.6389999999999</v>
+        <v>8.0749999999999993</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-2.718</v>
+        <v>3.9540000000000002</v>
       </c>
       <c r="AA21">
-        <v>149.12299999999999</v>
+        <v>36.909999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38898</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>180.04300000000001</v>
+        <v>64.254000000000005</v>
       </c>
       <c r="D22">
-        <v>3700.2420000000002</v>
+        <v>903.54399999999998</v>
       </c>
       <c r="E22">
-        <v>2471.7399999999998</v>
+        <v>473.161</v>
       </c>
       <c r="F22">
-        <v>1188.021</v>
+        <v>423.73200000000003</v>
       </c>
       <c r="G22">
-        <v>5305.223</v>
+        <v>738.36599999999999</v>
       </c>
       <c r="H22">
-        <v>11017.942999999999</v>
+        <v>2397.0709999999999</v>
       </c>
       <c r="I22">
-        <v>1484.1189999999999</v>
+        <v>206.405</v>
       </c>
       <c r="J22">
-        <v>2666.6129999999998</v>
+        <v>132.33000000000001</v>
       </c>
       <c r="K22">
-        <v>1750.797</v>
+        <v>291.21699999999998</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2546,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4994.1570000000002</v>
+        <v>926.04499999999996</v>
       </c>
       <c r="O22">
-        <v>8258.8729999999996</v>
+        <v>1448.1479999999999</v>
       </c>
       <c r="P22">
-        <v>4451.8379999999997</v>
+        <v>424.06</v>
       </c>
       <c r="Q22">
-        <v>100.04600000000001</v>
+        <v>-125.8</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38898</v>
       </c>
       <c r="S22">
-        <v>70000</v>
+        <v>14500</v>
       </c>
       <c r="T22">
-        <v>2759.07</v>
+        <v>948.923</v>
       </c>
       <c r="U22">
-        <v>540.40300000000002</v>
+        <v>127.289</v>
       </c>
       <c r="V22">
-        <v>509.48700000000002</v>
+        <v>107.288</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-420.62200000000001</v>
+        <v>-178.904</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>120.56399999999999</v>
+        <v>-8.8490000000000002</v>
       </c>
       <c r="AA22">
-        <v>180.04300000000001</v>
+        <v>64.254000000000005</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38990</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>82.167000000000002</v>
+        <v>92.308999999999997</v>
       </c>
       <c r="D23">
-        <v>2846.7339999999999</v>
+        <v>967.94100000000003</v>
       </c>
       <c r="E23">
-        <v>2344.8249999999998</v>
+        <v>504.43</v>
       </c>
       <c r="F23">
-        <v>833.12099999999998</v>
+        <v>446.88200000000001</v>
       </c>
       <c r="G23">
-        <v>4086.8960000000002</v>
+        <v>873.02099999999996</v>
       </c>
       <c r="H23">
-        <v>9835.1350000000002</v>
+        <v>2594.1260000000002</v>
       </c>
       <c r="I23">
-        <v>1351.0619999999999</v>
+        <v>232.214</v>
       </c>
       <c r="J23">
-        <v>2658.645</v>
+        <v>132.262</v>
       </c>
       <c r="K23">
-        <v>994.39300000000003</v>
+        <v>258.07600000000002</v>
       </c>
       <c r="L23">
-        <v>-285</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>-9.7270000000000003</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>3696.42</v>
+        <v>1008.667</v>
       </c>
       <c r="O23">
-        <v>6968.4369999999999</v>
+        <v>1539.569</v>
       </c>
       <c r="P23">
-        <v>3693.1</v>
+        <v>390.66</v>
       </c>
       <c r="Q23">
-        <v>-51.173999999999999</v>
+        <v>10.984</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38990</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>14500</v>
       </c>
       <c r="T23">
-        <v>2866.6979999999999</v>
+        <v>1054.557</v>
       </c>
       <c r="U23">
-        <v>489.22899999999998</v>
+        <v>138.273</v>
       </c>
       <c r="V23">
-        <v>-328.64</v>
+        <v>163.881</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>272.31400000000002</v>
+        <v>-95.224000000000004</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>46.901000000000003</v>
+        <v>-8.1519999999999992</v>
       </c>
       <c r="AA23">
-        <v>82.167000000000002</v>
+        <v>92.308999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>39082</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>121.66800000000001</v>
+        <v>125.098</v>
       </c>
       <c r="D24">
-        <v>3207.5369999999998</v>
+        <v>1409.27</v>
       </c>
       <c r="E24">
-        <v>2373.1570000000002</v>
+        <v>880.80899999999997</v>
       </c>
       <c r="F24">
-        <v>971.10400000000004</v>
+        <v>711.255</v>
       </c>
       <c r="G24">
-        <v>4246.0810000000001</v>
+        <v>2335.0120000000002</v>
       </c>
       <c r="H24">
-        <v>9922.5720000000001</v>
+        <v>5944.6310000000003</v>
       </c>
       <c r="I24">
-        <v>1381.8019999999999</v>
+        <v>477.78100000000001</v>
       </c>
       <c r="J24">
-        <v>2647.777</v>
+        <v>2185.15</v>
       </c>
       <c r="K24">
-        <v>995.31100000000004</v>
+        <v>126.208</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,164 +2712,164 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3742.6489999999999</v>
+        <v>1954.662</v>
       </c>
       <c r="O24">
-        <v>7018.8019999999997</v>
+        <v>4684.8540000000003</v>
       </c>
       <c r="P24">
-        <v>3685.634</v>
+        <v>2367.0500000000002</v>
       </c>
       <c r="Q24">
-        <v>-57.460999999999999</v>
+        <v>106.203</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>39082</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="T24">
-        <v>2903.77</v>
+        <v>1259.777</v>
       </c>
       <c r="U24">
-        <v>431.76799999999997</v>
+        <v>244.476</v>
       </c>
       <c r="V24">
-        <v>118.623</v>
+        <v>343.63299999999998</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-130.82599999999999</v>
+        <v>1685.6130000000001</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>17.657</v>
+        <v>-21.341999999999999</v>
       </c>
       <c r="AA24">
-        <v>121.66800000000001</v>
+        <v>125.098</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>39172</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>104.163</v>
+        <v>11.977</v>
       </c>
       <c r="D25">
-        <v>3193.4870000000001</v>
+        <v>1213.961</v>
       </c>
       <c r="E25">
-        <v>2399.1610000000001</v>
+        <v>777.47799999999995</v>
       </c>
       <c r="F25">
-        <v>955.404</v>
+        <v>564.28800000000001</v>
       </c>
       <c r="G25">
-        <v>5055.4769999999999</v>
+        <v>1787.615</v>
       </c>
       <c r="H25">
-        <v>10776.77</v>
+        <v>5598.7420000000002</v>
       </c>
       <c r="I25">
-        <v>1365.528</v>
+        <v>386.15800000000002</v>
       </c>
       <c r="J25">
-        <v>2633.7710000000002</v>
+        <v>2219.1239999999998</v>
       </c>
       <c r="K25">
-        <v>1702.107</v>
+        <v>83.563000000000002</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>-39.970999999999997</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>-40.073</v>
       </c>
       <c r="N25">
-        <v>4566.8639999999996</v>
+        <v>1410.873</v>
       </c>
       <c r="O25">
-        <v>7795.2669999999998</v>
+        <v>4329.0060000000003</v>
       </c>
       <c r="P25">
-        <v>4380.9049999999997</v>
+        <v>2522.8029999999999</v>
       </c>
       <c r="Q25">
-        <v>14.577999999999999</v>
+        <v>101.872</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>39172</v>
       </c>
       <c r="S25">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>2981.5030000000002</v>
+        <v>1269.7360000000001</v>
       </c>
       <c r="U25">
-        <v>446.346</v>
+        <v>346.34800000000001</v>
       </c>
       <c r="V25">
-        <v>156.828</v>
+        <v>111.877</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-142.327</v>
+        <v>68.588999999999999</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-4.1669999999999998</v>
+        <v>-9.0939999999999994</v>
       </c>
       <c r="AA25">
-        <v>104.163</v>
+        <v>11.977</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39263</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>263.97500000000002</v>
+        <v>141.13499999999999</v>
       </c>
       <c r="D26">
-        <v>3823.8310000000001</v>
+        <v>1490.3630000000001</v>
       </c>
       <c r="E26">
-        <v>2605.6019999999999</v>
+        <v>903.32899999999995</v>
       </c>
       <c r="F26">
-        <v>1220.7329999999999</v>
+        <v>698.75800000000004</v>
       </c>
       <c r="G26">
-        <v>5122.45</v>
+        <v>2125.21</v>
       </c>
       <c r="H26">
-        <v>10779.587</v>
+        <v>5950.03</v>
       </c>
       <c r="I26">
-        <v>1417.1379999999999</v>
+        <v>388.334</v>
       </c>
       <c r="J26">
-        <v>2561.326</v>
+        <v>2087.5839999999998</v>
       </c>
       <c r="K26">
-        <v>1254.6690000000001</v>
+        <v>267.262</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2878,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>4525.4290000000001</v>
+        <v>1759.883</v>
       </c>
       <c r="O26">
-        <v>7722.3419999999996</v>
+        <v>4418.2740000000003</v>
       </c>
       <c r="P26">
-        <v>3816.0059999999999</v>
+        <v>2595.73</v>
       </c>
       <c r="Q26">
-        <v>316.23</v>
+        <v>91.82</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39263</v>
       </c>
       <c r="S26">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>3057.2449999999999</v>
+        <v>1531.7560000000001</v>
       </c>
       <c r="U26">
-        <v>762.57600000000002</v>
+        <v>438.16800000000001</v>
       </c>
       <c r="V26">
-        <v>503.50400000000002</v>
+        <v>51.045000000000002</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-198.804</v>
+        <v>68.718000000000004</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>83.629000000000005</v>
+        <v>-5.66</v>
       </c>
       <c r="AA26">
-        <v>263.97500000000002</v>
+        <v>141.13499999999999</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39355</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>137.02000000000001</v>
+        <v>114.947</v>
       </c>
       <c r="D27">
-        <v>4050.9659999999999</v>
+        <v>1492.809</v>
       </c>
       <c r="E27">
-        <v>2499.1149999999998</v>
+        <v>959.01700000000005</v>
       </c>
       <c r="F27">
-        <v>904.48900000000003</v>
+        <v>700.95699999999999</v>
       </c>
       <c r="G27">
-        <v>4245.46</v>
+        <v>2576.2689999999998</v>
       </c>
       <c r="H27">
-        <v>9927.1119999999992</v>
+        <v>6483.6409999999996</v>
       </c>
       <c r="I27">
-        <v>1298.4839999999999</v>
+        <v>427.61500000000001</v>
       </c>
       <c r="J27">
-        <v>2559.5990000000002</v>
+        <v>2009.8979999999999</v>
       </c>
       <c r="K27">
-        <v>791.46900000000005</v>
+        <v>556.72500000000002</v>
       </c>
       <c r="L27">
-        <v>-146</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>-3.1789999999999998</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>3473.18</v>
+        <v>2205.7730000000001</v>
       </c>
       <c r="O27">
-        <v>6668.8729999999996</v>
+        <v>4761.8490000000002</v>
       </c>
       <c r="P27">
-        <v>3351.08</v>
+        <v>2724.3670000000002</v>
       </c>
       <c r="Q27">
-        <v>-239.08500000000001</v>
+        <v>-2.9609999999999999</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39355</v>
       </c>
       <c r="S27">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>3258.239</v>
+        <v>1721.7919999999999</v>
       </c>
       <c r="U27">
-        <v>533.28099999999995</v>
+        <v>435.20699999999999</v>
       </c>
       <c r="V27">
-        <v>-321.39800000000002</v>
+        <v>126.503</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>109.42700000000001</v>
+        <v>-31.997</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-7.7610000000000001</v>
+        <v>-17.72</v>
       </c>
       <c r="AA27">
-        <v>137.02000000000001</v>
+        <v>114.947</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39447</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>201.77699999999999</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>4439.5709999999999</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>2653.346</v>
+        <v>1081.653</v>
       </c>
       <c r="F28">
-        <v>1030.0309999999999</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>4824.3360000000002</v>
+        <v>2325.5680000000002</v>
       </c>
       <c r="H28">
-        <v>10606.218000000001</v>
+        <v>6242.5730000000003</v>
       </c>
       <c r="I28">
-        <v>1402.9010000000001</v>
+        <v>488.34100000000001</v>
       </c>
       <c r="J28">
-        <v>2550.404</v>
+        <v>1996.2249999999999</v>
       </c>
       <c r="K28">
-        <v>1054.9860000000001</v>
+        <v>538.67999999999995</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,164 +3044,164 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>3797.55</v>
+        <v>2423.8110000000001</v>
       </c>
       <c r="O28">
-        <v>7023.192</v>
+        <v>4990.4170000000004</v>
       </c>
       <c r="P28">
-        <v>3605.4009999999998</v>
+        <v>2673.9850000000001</v>
       </c>
       <c r="Q28">
-        <v>18.074000000000002</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39447</v>
       </c>
       <c r="S28">
-        <v>75000</v>
+        <v>29000</v>
       </c>
       <c r="T28">
-        <v>3583.0259999999998</v>
+        <v>1252.1559999999999</v>
       </c>
       <c r="U28">
-        <v>535.68100000000004</v>
+        <v>342.87400000000002</v>
       </c>
       <c r="V28">
-        <v>203.96100000000001</v>
+        <v>0</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>-139.13399999999999</v>
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-3.3860000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>201.77699999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39538</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>199.08799999999999</v>
+        <v>20.454000000000001</v>
       </c>
       <c r="D29">
-        <v>4638.5959999999995</v>
+        <v>1230.925</v>
       </c>
       <c r="E29">
-        <v>2843.1260000000002</v>
+        <v>950.64800000000002</v>
       </c>
       <c r="F29">
-        <v>1040.317</v>
+        <v>526.47900000000004</v>
       </c>
       <c r="G29">
-        <v>5804.7340000000004</v>
+        <v>2224.7089999999998</v>
       </c>
       <c r="H29">
-        <v>11652.013999999999</v>
+        <v>6308.9880000000003</v>
       </c>
       <c r="I29">
-        <v>1485.06</v>
+        <v>445.11200000000002</v>
       </c>
       <c r="J29">
-        <v>2551.5680000000002</v>
+        <v>2270.9270000000001</v>
       </c>
       <c r="K29">
-        <v>1416.269</v>
+        <v>623.01</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>-657</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>-3.1230000000000002</v>
       </c>
       <c r="N29">
-        <v>4551.3770000000004</v>
+        <v>2216.46</v>
       </c>
       <c r="O29">
-        <v>7800.1779999999999</v>
+        <v>5040.8069999999998</v>
       </c>
       <c r="P29">
-        <v>3967.8470000000002</v>
+        <v>3126.1469999999999</v>
       </c>
       <c r="Q29">
-        <v>429.99799999999999</v>
+        <v>-29.712</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39538</v>
       </c>
       <c r="S29">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>3851.8359999999998</v>
+        <v>1268.181</v>
       </c>
       <c r="U29">
-        <v>955.60500000000002</v>
+        <v>313.16199999999998</v>
       </c>
       <c r="V29">
-        <v>503.03</v>
+        <v>-316.86399999999998</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>-37.780999999999999</v>
+        <v>439.31200000000001</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>9.8789999999999996</v>
+        <v>-3.48</v>
       </c>
       <c r="AA29">
-        <v>199.08799999999999</v>
+        <v>20.454000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39629</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>159.22399999999999</v>
+        <v>16.562999999999999</v>
       </c>
       <c r="D30">
-        <v>5499.6540000000005</v>
+        <v>1314.873</v>
       </c>
       <c r="E30">
-        <v>3385.3420000000001</v>
+        <v>940.9</v>
       </c>
       <c r="F30">
-        <v>1348.8510000000001</v>
+        <v>577.66800000000001</v>
       </c>
       <c r="G30">
-        <v>5630.5839999999998</v>
+        <v>2218.9690000000001</v>
       </c>
       <c r="H30">
-        <v>11718.396000000001</v>
+        <v>6439.5050000000001</v>
       </c>
       <c r="I30">
-        <v>1550.472</v>
+        <v>479.74</v>
       </c>
       <c r="J30">
-        <v>2004.403</v>
+        <v>2277.3069999999998</v>
       </c>
       <c r="K30">
-        <v>910.78200000000004</v>
+        <v>646.149</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3210,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>4712.9440000000004</v>
+        <v>2280.9850000000001</v>
       </c>
       <c r="O30">
-        <v>7543.7820000000002</v>
+        <v>5106.47</v>
       </c>
       <c r="P30">
-        <v>2915.1930000000002</v>
+        <v>3222.7310000000002</v>
       </c>
       <c r="Q30">
-        <v>-215.58</v>
+        <v>-62.643999999999998</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39629</v>
       </c>
       <c r="S30">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>4174.6139999999996</v>
+        <v>1333.0350000000001</v>
       </c>
       <c r="U30">
-        <v>751.774</v>
+        <v>250.518</v>
       </c>
       <c r="V30">
-        <v>508.81799999999998</v>
+        <v>-63.203000000000003</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>-560.25400000000002</v>
+        <v>111.241</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-7.2549999999999999</v>
+        <v>-8.6059999999999999</v>
       </c>
       <c r="AA30">
-        <v>159.22399999999999</v>
+        <v>16.562999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39721</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>150.28800000000001</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>4673.9520000000002</v>
+        <v>1299.7349999999999</v>
       </c>
       <c r="E31">
-        <v>3321.6869999999999</v>
+        <v>835.57500000000005</v>
       </c>
       <c r="F31">
-        <v>1053.991</v>
+        <v>544.37300000000005</v>
       </c>
       <c r="G31">
-        <v>5754.3</v>
+        <v>2170.7310000000002</v>
       </c>
       <c r="H31">
-        <v>11907.441999999999</v>
+        <v>6411.7659999999996</v>
       </c>
       <c r="I31">
-        <v>1463.2339999999999</v>
+        <v>394.209</v>
       </c>
       <c r="J31">
-        <v>1761.288</v>
+        <v>2310.8760000000002</v>
       </c>
       <c r="K31">
-        <v>1611.021</v>
+        <v>803.18399999999997</v>
       </c>
       <c r="L31">
-        <v>-435</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>-820</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>4869.6549999999997</v>
+        <v>2235.4119999999998</v>
       </c>
       <c r="O31">
-        <v>7488.768</v>
+        <v>5074.5929999999998</v>
       </c>
       <c r="P31">
-        <v>3372.36</v>
+        <v>3421.3510000000001</v>
       </c>
       <c r="Q31">
-        <v>-103.006</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39721</v>
       </c>
       <c r="S31">
-        <v>80000</v>
+        <v>29000</v>
       </c>
       <c r="T31">
-        <v>4418.674</v>
+        <v>1337.173</v>
       </c>
       <c r="U31">
-        <v>642.85400000000004</v>
+        <v>400.78</v>
       </c>
       <c r="V31">
-        <v>-249.958</v>
+        <v>0</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>181.345</v>
+        <v>0</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-11.048999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>150.28800000000001</v>
+        <v>40.372999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39813</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>228.667</v>
+        <v>-1089.4559999999999</v>
       </c>
       <c r="D32">
-        <v>5111.4340000000002</v>
+        <v>1283.2840000000001</v>
       </c>
       <c r="E32">
-        <v>3433.7939999999999</v>
+        <v>751.94</v>
       </c>
       <c r="F32">
-        <v>1152.6859999999999</v>
+        <v>553.57600000000002</v>
       </c>
       <c r="G32">
-        <v>6106.71</v>
+        <v>1915.5329999999999</v>
       </c>
       <c r="H32">
-        <v>12535.457</v>
+        <v>4726.4139999999998</v>
       </c>
       <c r="I32">
-        <v>1592.53</v>
+        <v>399.87700000000001</v>
       </c>
       <c r="J32">
-        <v>1764.9849999999999</v>
+        <v>2287.0010000000002</v>
       </c>
       <c r="K32">
-        <v>2069.607</v>
+        <v>246.065</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,164 +3376,164 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>5381.1350000000002</v>
+        <v>1872.845</v>
       </c>
       <c r="O32">
-        <v>8018.5860000000002</v>
+        <v>4380.6909999999998</v>
       </c>
       <c r="P32">
-        <v>3836.058</v>
+        <v>2938.4</v>
       </c>
       <c r="Q32">
-        <v>-118.467</v>
+        <v>-241.95699999999999</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39813</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="T32">
-        <v>4516.8710000000001</v>
+        <v>345.72300000000001</v>
       </c>
       <c r="U32">
-        <v>531.48099999999999</v>
+        <v>158.82300000000001</v>
       </c>
       <c r="V32">
-        <v>157.89599999999999</v>
+        <v>100.97199999999999</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>84.697000000000003</v>
+        <v>-326.27100000000002</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-1.1890000000000001</v>
+        <v>-6.6550000000000002</v>
       </c>
       <c r="AA32">
-        <v>228.667</v>
+        <v>-1089.4559999999999</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39903</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>290.46899999999999</v>
+        <v>-36.689</v>
       </c>
       <c r="D33">
-        <v>5260.9539999999997</v>
+        <v>890.44899999999996</v>
       </c>
       <c r="E33">
-        <v>3570.672</v>
+        <v>625.84900000000005</v>
       </c>
       <c r="F33">
-        <v>1162.05</v>
+        <v>337.03</v>
       </c>
       <c r="G33">
-        <v>6378.3140000000003</v>
+        <v>1904.0940000000001</v>
       </c>
       <c r="H33">
-        <v>12977.116</v>
+        <v>4657.4809999999998</v>
       </c>
       <c r="I33">
-        <v>1627.7829999999999</v>
+        <v>321.41399999999999</v>
       </c>
       <c r="J33">
-        <v>1761.403</v>
+        <v>2138.1239999999998</v>
       </c>
       <c r="K33">
-        <v>1720.7560000000001</v>
+        <v>729.39800000000002</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>-122.303</v>
       </c>
       <c r="N33">
-        <v>5485.7809999999999</v>
+        <v>2035.7139999999999</v>
       </c>
       <c r="O33">
-        <v>8204.7250000000004</v>
+        <v>4379.0780000000004</v>
       </c>
       <c r="P33">
-        <v>3486.1469999999999</v>
+        <v>3315.1280000000002</v>
       </c>
       <c r="Q33">
-        <v>24.591999999999999</v>
+        <v>264.64</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39903</v>
       </c>
       <c r="S33">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>4772.3909999999996</v>
+        <v>278.40300000000002</v>
       </c>
       <c r="U33">
-        <v>550.46799999999996</v>
+        <v>423.46300000000002</v>
       </c>
       <c r="V33">
-        <v>594.37300000000005</v>
+        <v>-11.474</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-479.52199999999999</v>
+        <v>303.029</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>14.975</v>
+        <v>-10.526999999999999</v>
       </c>
       <c r="AA33">
-        <v>290.46899999999999</v>
+        <v>-36.689</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39994</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>393.79500000000002</v>
+        <v>-6.6369999999999996</v>
       </c>
       <c r="D34">
-        <v>6293.7479999999996</v>
+        <v>955.66700000000003</v>
       </c>
       <c r="E34">
-        <v>3975.6109999999999</v>
+        <v>666.47799999999995</v>
       </c>
       <c r="F34">
-        <v>1522.1489999999999</v>
+        <v>388.83600000000001</v>
       </c>
       <c r="G34">
-        <v>6754.21</v>
+        <v>1557.81</v>
       </c>
       <c r="H34">
-        <v>13456.793</v>
+        <v>4418.9780000000001</v>
       </c>
       <c r="I34">
-        <v>1878.127</v>
+        <v>342.37099999999998</v>
       </c>
       <c r="J34">
-        <v>1767.26</v>
+        <v>2480.067</v>
       </c>
       <c r="K34">
-        <v>1328.761</v>
+        <v>202.97900000000001</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3542,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>5803.38</v>
+        <v>1242.2750000000001</v>
       </c>
       <c r="O34">
-        <v>8446.8909999999996</v>
+        <v>3932.6579999999999</v>
       </c>
       <c r="P34">
-        <v>3100.2370000000001</v>
+        <v>2983.7350000000001</v>
       </c>
       <c r="Q34">
-        <v>236.006</v>
+        <v>-113.943</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39994</v>
       </c>
       <c r="S34">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>5009.902</v>
+        <v>486.32</v>
       </c>
       <c r="U34">
-        <v>777.21900000000005</v>
+        <v>309.52</v>
       </c>
       <c r="V34">
-        <v>628.93799999999999</v>
+        <v>-71.245000000000005</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-293.12</v>
+        <v>-13.621</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-26.486000000000001</v>
+        <v>-22.468</v>
       </c>
       <c r="AA34">
-        <v>393.79500000000002</v>
+        <v>-6.6369999999999996</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>40086</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>164.40899999999999</v>
+        <v>12.377000000000001</v>
       </c>
       <c r="D35">
-        <v>5135.51</v>
+        <v>1023.205</v>
       </c>
       <c r="E35">
-        <v>4096.8770000000004</v>
+        <v>681.23800000000006</v>
       </c>
       <c r="F35">
-        <v>1113.4760000000001</v>
+        <v>416.73500000000001</v>
       </c>
       <c r="G35">
-        <v>6996.86</v>
+        <v>1633.066</v>
       </c>
       <c r="H35">
-        <v>14693.008</v>
+        <v>4475.3440000000001</v>
       </c>
       <c r="I35">
-        <v>1803.8409999999999</v>
+        <v>426.9</v>
       </c>
       <c r="J35">
-        <v>1760.181</v>
+        <v>2419.1759999999999</v>
       </c>
       <c r="K35">
-        <v>1897.2070000000001</v>
+        <v>239.94300000000001</v>
       </c>
       <c r="L35">
-        <v>-471</v>
+        <v>0</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35">
-        <v>6010.0820000000003</v>
+        <v>1369.8440000000001</v>
       </c>
       <c r="O35">
-        <v>9488.7919999999995</v>
+        <v>4009.1880000000001</v>
       </c>
       <c r="P35">
-        <v>4874.7250000000004</v>
+        <v>2922.808</v>
       </c>
       <c r="Q35">
-        <v>-176.27600000000001</v>
+        <v>16.524999999999999</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>40086</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>5204.2160000000003</v>
+        <v>466.15600000000001</v>
       </c>
       <c r="U35">
-        <v>604.952</v>
+        <v>326.04500000000002</v>
       </c>
       <c r="V35">
-        <v>-392.57499999999999</v>
+        <v>136.16999999999999</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>300.02800000000002</v>
+        <v>-87.162999999999997</v>
       </c>
       <c r="Y35">
-        <v>1003.564</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-17.588000000000001</v>
+        <v>-3.9089999999999998</v>
       </c>
       <c r="AA35">
-        <v>164.40899999999999</v>
+        <v>12.377000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>40178</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>223.73099999999999</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="D36">
-        <v>5714.0730000000003</v>
+        <v>1296.499</v>
       </c>
       <c r="E36">
-        <v>4324.25</v>
+        <v>775.92899999999997</v>
       </c>
       <c r="F36">
-        <v>1268.2829999999999</v>
+        <v>575.33399999999995</v>
       </c>
       <c r="G36">
-        <v>6885.2169999999996</v>
+        <v>2266.7249999999999</v>
       </c>
       <c r="H36">
-        <v>14719.135</v>
+        <v>5039.4059999999999</v>
       </c>
       <c r="I36">
-        <v>2046.345</v>
+        <v>458.51</v>
       </c>
       <c r="J36">
-        <v>1766.5640000000001</v>
+        <v>2372.3020000000001</v>
       </c>
       <c r="K36">
-        <v>1579.9880000000001</v>
+        <v>339.77199999999999</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,164 +3708,164 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>5887.4489999999996</v>
+        <v>1629.0409999999999</v>
       </c>
       <c r="O36">
-        <v>9328.6049999999996</v>
+        <v>4255.1109999999999</v>
       </c>
       <c r="P36">
-        <v>4586.7269999999999</v>
+        <v>3010.6770000000001</v>
       </c>
       <c r="Q36">
-        <v>-74.442999999999998</v>
+        <v>415.512</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>40178</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>29000</v>
       </c>
       <c r="T36">
-        <v>5390.53</v>
+        <v>784.29499999999996</v>
       </c>
       <c r="U36">
-        <v>535.61800000000005</v>
+        <v>741.55700000000002</v>
       </c>
       <c r="V36">
-        <v>99.290999999999997</v>
+        <v>160.19399999999999</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>-114.054</v>
+        <v>274.52300000000002</v>
       </c>
       <c r="Y36">
-        <v>1037.229</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-7.3259999999999996</v>
+        <v>-1.266</v>
       </c>
       <c r="AA36">
-        <v>223.73099999999999</v>
+        <v>64.290000000000006</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40268</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>256.59899999999999</v>
+        <v>-6.6269999999999998</v>
       </c>
       <c r="D37">
-        <v>5925.1009999999997</v>
+        <v>1025.883</v>
       </c>
       <c r="E37">
-        <v>4406.366</v>
+        <v>720.226</v>
       </c>
       <c r="F37">
-        <v>1237.7650000000001</v>
+        <v>410.68900000000002</v>
       </c>
       <c r="G37">
-        <v>7058.835</v>
+        <v>1897.204</v>
       </c>
       <c r="H37">
-        <v>15040.941999999999</v>
+        <v>4867.415</v>
       </c>
       <c r="I37">
-        <v>2049.1909999999998</v>
+        <v>370.94</v>
       </c>
       <c r="J37">
-        <v>1748.2639999999999</v>
+        <v>2567.5990000000002</v>
       </c>
       <c r="K37">
-        <v>1404.6679999999999</v>
+        <v>127.51600000000001</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>-4.04</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>-65.594999999999999</v>
       </c>
       <c r="N37">
-        <v>6027.97</v>
+        <v>1263.4069999999999</v>
       </c>
       <c r="O37">
-        <v>9481.9619999999995</v>
+        <v>4077.94</v>
       </c>
       <c r="P37">
-        <v>4438.326</v>
+        <v>2943.81</v>
       </c>
       <c r="Q37">
-        <v>89.08</v>
+        <v>-61.262</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40268</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>5558.98</v>
+        <v>789.47500000000002</v>
       </c>
       <c r="U37">
-        <v>577.46</v>
+        <v>680.29499999999996</v>
       </c>
       <c r="V37">
-        <v>468.03300000000002</v>
+        <v>7.0910000000000002</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-237.93700000000001</v>
+        <v>-54.223999999999997</v>
       </c>
       <c r="Y37">
-        <v>1090.069</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-38.774000000000001</v>
+        <v>-6.2610000000000001</v>
       </c>
       <c r="AA37">
-        <v>256.59899999999999</v>
+        <v>-6.6269999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40359</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>637.61800000000005</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>7119.4070000000002</v>
+        <v>1171.9190000000001</v>
       </c>
       <c r="E38">
-        <v>4794.6859999999997</v>
+        <v>731.62099999999998</v>
       </c>
       <c r="F38">
-        <v>1585.5540000000001</v>
+        <v>493.20499999999998</v>
       </c>
       <c r="G38">
-        <v>7534.4639999999999</v>
+        <v>2053.1039999999998</v>
       </c>
       <c r="H38">
-        <v>16197.196</v>
+        <v>4931.05</v>
       </c>
       <c r="I38">
-        <v>2394.4839999999999</v>
+        <v>359.23399999999998</v>
       </c>
       <c r="J38">
-        <v>1761.2449999999999</v>
+        <v>2471.6840000000002</v>
       </c>
       <c r="K38">
-        <v>981.70899999999995</v>
+        <v>286.14299999999997</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3874,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>6436.451</v>
+        <v>1395.1389999999999</v>
       </c>
       <c r="O38">
-        <v>9924.0840000000007</v>
+        <v>4110.4399999999996</v>
       </c>
       <c r="P38">
-        <v>4066.1559999999999</v>
+        <v>3053.7289999999998</v>
       </c>
       <c r="Q38">
-        <v>391.44</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40359</v>
       </c>
       <c r="S38">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>6273.1120000000001</v>
+        <v>820.61</v>
       </c>
       <c r="U38">
-        <v>971.78099999999995</v>
+        <v>743.56299999999999</v>
       </c>
       <c r="V38">
-        <v>1048.6310000000001</v>
+        <v>0</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>-219.98599999999999</v>
+        <v>0</v>
       </c>
       <c r="Y38">
-        <v>1117.759</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-8.9700000000000006</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>637.61800000000005</v>
+        <v>54.79</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40451</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>172.19499999999999</v>
+        <v>57.037999999999997</v>
       </c>
       <c r="D39">
-        <v>5889.1679999999997</v>
+        <v>1266.2180000000001</v>
       </c>
       <c r="E39">
-        <v>4592.2520000000004</v>
+        <v>818.03</v>
       </c>
       <c r="F39">
-        <v>1176.4939999999999</v>
+        <v>530.82500000000005</v>
       </c>
       <c r="G39">
-        <v>7263.5870000000004</v>
+        <v>2177.587</v>
       </c>
       <c r="H39">
-        <v>15680.263999999999</v>
+        <v>5075.0630000000001</v>
       </c>
       <c r="I39">
-        <v>2327.9029999999998</v>
+        <v>405.8</v>
       </c>
       <c r="J39">
-        <v>1754.518</v>
+        <v>2258.3150000000001</v>
       </c>
       <c r="K39">
-        <v>1264.04</v>
+        <v>284.36200000000002</v>
       </c>
       <c r="L39">
-        <v>-331.70100000000002</v>
+        <v>0</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="N39">
-        <v>6065.4260000000004</v>
+        <v>1609.8679999999999</v>
       </c>
       <c r="O39">
-        <v>9510.7170000000006</v>
+        <v>4118.0990000000002</v>
       </c>
       <c r="P39">
-        <v>4349.0749999999998</v>
+        <v>2865.94</v>
       </c>
       <c r="Q39">
-        <v>-361.05</v>
+        <v>25.111999999999998</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40451</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>6169.5469999999996</v>
+        <v>956.96400000000006</v>
       </c>
       <c r="U39">
-        <v>628.45100000000002</v>
+        <v>768.67499999999995</v>
       </c>
       <c r="V39">
-        <v>-136.28100000000001</v>
+        <v>223.917</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>-93.905000000000001</v>
+        <v>-183.88</v>
       </c>
       <c r="Y39">
-        <v>1108.7239999999999</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-13.161</v>
+        <v>-8.6809999999999992</v>
       </c>
       <c r="AA39">
-        <v>172.19499999999999</v>
+        <v>57.037999999999997</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40543</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>81.897000000000006</v>
+        <v>95.144000000000005</v>
       </c>
       <c r="D40">
-        <v>5381.384</v>
+        <v>1651.296</v>
       </c>
       <c r="E40">
-        <v>4423.6850000000004</v>
+        <v>940.16700000000003</v>
       </c>
       <c r="F40">
-        <v>989.24699999999996</v>
+        <v>720.42700000000002</v>
       </c>
       <c r="G40">
-        <v>7189.4350000000004</v>
+        <v>2260.87</v>
       </c>
       <c r="H40">
-        <v>15700.414000000001</v>
+        <v>5121.5680000000002</v>
       </c>
       <c r="I40">
-        <v>2217.1179999999999</v>
+        <v>445.33699999999999</v>
       </c>
       <c r="J40">
-        <v>1763.1130000000001</v>
+        <v>1851.9010000000001</v>
       </c>
       <c r="K40">
-        <v>1210.1890000000001</v>
+        <v>471.36700000000002</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,211 +4040,3365 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>5852.8980000000001</v>
+        <v>1956.768</v>
       </c>
       <c r="O40">
-        <v>9415.3629999999994</v>
+        <v>4055.7730000000001</v>
       </c>
       <c r="P40">
-        <v>4384.277</v>
+        <v>2515.567</v>
       </c>
       <c r="Q40">
-        <v>581.03899999999999</v>
+        <v>-262.101</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40543</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>31000</v>
       </c>
       <c r="T40">
-        <v>6285.0510000000004</v>
+        <v>1065.7950000000001</v>
       </c>
       <c r="U40">
-        <v>1214.213</v>
+        <v>506.57400000000001</v>
       </c>
       <c r="V40">
-        <v>142.34399999999999</v>
+        <v>291.66300000000001</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>470.86799999999999</v>
+        <v>-511.20100000000002</v>
       </c>
       <c r="Y40">
-        <v>1181.0619999999999</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>25.965</v>
+        <v>-11.263999999999999</v>
       </c>
       <c r="AA40">
-        <v>81.897000000000006</v>
+        <v>95.144000000000005</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40633</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>184.13200000000001</v>
+        <v>34.369</v>
       </c>
       <c r="D41">
-        <v>5645.1419999999998</v>
+        <v>1185.105</v>
       </c>
       <c r="E41">
-        <v>4280.0290000000005</v>
+        <v>889.07600000000002</v>
       </c>
       <c r="F41">
-        <v>1096.2629999999999</v>
+        <v>471.35</v>
       </c>
       <c r="G41">
-        <v>7771.375</v>
+        <v>1969.0329999999999</v>
       </c>
       <c r="H41">
-        <v>16347.075999999999</v>
+        <v>4792.8980000000001</v>
       </c>
       <c r="I41">
-        <v>2408.2449999999999</v>
+        <v>429.52600000000001</v>
       </c>
       <c r="J41">
-        <v>1783.212</v>
+        <v>1808.2919999999999</v>
       </c>
       <c r="K41">
-        <v>1196.8620000000001</v>
+        <v>343.94200000000001</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>-187</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>-68.826999999999998</v>
       </c>
       <c r="N41">
-        <v>6152.2719999999999</v>
+        <v>1581.6030000000001</v>
       </c>
       <c r="O41">
-        <v>9752.7739999999994</v>
+        <v>3643.7530000000002</v>
       </c>
       <c r="P41">
-        <v>4396.357</v>
+        <v>2328.924</v>
       </c>
       <c r="Q41">
-        <v>332.82299999999998</v>
+        <v>-78.929000000000002</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40633</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>6594.3019999999997</v>
+        <v>1149.145</v>
       </c>
       <c r="U41">
-        <v>1481.924</v>
+        <v>427.64499999999998</v>
       </c>
       <c r="V41">
-        <v>854.57899999999995</v>
+        <v>-113.88200000000001</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>-488.28699999999998</v>
+        <v>-39.164000000000001</v>
       </c>
       <c r="Y41">
-        <v>1187.336</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-18.452999999999999</v>
+        <v>3.488</v>
       </c>
       <c r="AA41">
-        <v>184.13200000000001</v>
+        <v>34.369</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40724</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>61.222999999999999</v>
+      </c>
+      <c r="D42">
+        <v>1422.2180000000001</v>
+      </c>
+      <c r="E42">
+        <v>968.58500000000004</v>
+      </c>
+      <c r="F42">
+        <v>582.39599999999996</v>
+      </c>
+      <c r="G42">
+        <v>2379.0540000000001</v>
+      </c>
+      <c r="H42">
+        <v>5282.732</v>
+      </c>
+      <c r="I42">
+        <v>441.79899999999998</v>
+      </c>
+      <c r="J42">
+        <v>2134.2669999999998</v>
+      </c>
+      <c r="K42">
+        <v>413.726</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1630.836</v>
+      </c>
+      <c r="O42">
+        <v>4043.0740000000001</v>
+      </c>
+      <c r="P42">
+        <v>2743.6289999999999</v>
+      </c>
+      <c r="Q42">
+        <v>324.464</v>
+      </c>
+      <c r="R42">
+        <v>40724</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>1239.6579999999999</v>
+      </c>
+      <c r="U42">
+        <v>752.10900000000004</v>
+      </c>
+      <c r="V42">
+        <v>-42.508000000000003</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>378.80700000000002</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>14.406000000000001</v>
+      </c>
+      <c r="AA42">
+        <v>61.222999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>63.807000000000002</v>
+      </c>
+      <c r="D43">
+        <v>1534.463</v>
+      </c>
+      <c r="E43">
+        <v>997.93100000000004</v>
+      </c>
+      <c r="F43">
+        <v>639.85599999999999</v>
+      </c>
+      <c r="G43">
+        <v>3225.9110000000001</v>
+      </c>
+      <c r="H43">
+        <v>6415.1030000000001</v>
+      </c>
+      <c r="I43">
+        <v>495.83300000000003</v>
+      </c>
+      <c r="J43">
+        <v>2466.3270000000002</v>
+      </c>
+      <c r="K43">
+        <v>718.06600000000003</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>2228.1709999999998</v>
+      </c>
+      <c r="O43">
+        <v>5057.0410000000002</v>
+      </c>
+      <c r="P43">
+        <v>3396.4670000000001</v>
+      </c>
+      <c r="Q43">
+        <v>-89.515000000000001</v>
+      </c>
+      <c r="R43">
+        <v>40816</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1358.0619999999999</v>
+      </c>
+      <c r="U43">
+        <v>662.59400000000005</v>
+      </c>
+      <c r="V43">
+        <v>260.51400000000001</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>259.87799999999999</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>1.909</v>
+      </c>
+      <c r="AA43">
+        <v>63.807000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>79.763000000000005</v>
+      </c>
+      <c r="D44">
+        <v>1763.625</v>
+      </c>
+      <c r="E44">
+        <v>1135.3710000000001</v>
+      </c>
+      <c r="F44">
+        <v>774.67899999999997</v>
+      </c>
+      <c r="G44">
+        <v>3550.047</v>
+      </c>
+      <c r="H44">
+        <v>7219.143</v>
+      </c>
+      <c r="I44">
+        <v>574.13599999999997</v>
+      </c>
+      <c r="J44">
+        <v>2611.1869999999999</v>
+      </c>
+      <c r="K44">
+        <v>758.20299999999997</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>2680.6480000000001</v>
+      </c>
+      <c r="O44">
+        <v>5801.98</v>
+      </c>
+      <c r="P44">
+        <v>3583.348</v>
+      </c>
+      <c r="Q44">
+        <v>430.58800000000002</v>
+      </c>
+      <c r="R44">
+        <v>40908</v>
+      </c>
+      <c r="S44">
+        <v>34000</v>
+      </c>
+      <c r="T44">
+        <v>1417.163</v>
+      </c>
+      <c r="U44">
+        <v>1093.182</v>
+      </c>
+      <c r="V44">
+        <v>257.09500000000003</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>111.804</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>38.280999999999999</v>
+      </c>
+      <c r="AA44">
+        <v>79.763000000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>26.975000000000001</v>
+      </c>
+      <c r="D45">
+        <v>1349.989</v>
+      </c>
+      <c r="E45">
+        <v>1075.4949999999999</v>
+      </c>
+      <c r="F45">
+        <v>562.43299999999999</v>
+      </c>
+      <c r="G45">
+        <v>2781.7049999999999</v>
+      </c>
+      <c r="H45">
+        <v>6539.5569999999998</v>
+      </c>
+      <c r="I45">
+        <v>524.23299999999995</v>
+      </c>
+      <c r="J45">
+        <v>2616.7510000000002</v>
+      </c>
+      <c r="K45">
+        <v>445.18099999999998</v>
+      </c>
+      <c r="L45">
+        <v>-10.795</v>
+      </c>
+      <c r="M45">
+        <v>-19.34</v>
+      </c>
+      <c r="N45">
+        <v>1992.6790000000001</v>
+      </c>
+      <c r="O45">
+        <v>5137.2139999999999</v>
+      </c>
+      <c r="P45">
+        <v>3339.2829999999999</v>
+      </c>
+      <c r="Q45">
+        <v>-389.245</v>
+      </c>
+      <c r="R45">
+        <v>40999</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>1402.3430000000001</v>
+      </c>
+      <c r="U45">
+        <v>703.93700000000001</v>
+      </c>
+      <c r="V45">
+        <v>-298.94900000000001</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-22.484999999999999</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-8.6750000000000007</v>
+      </c>
+      <c r="AA45">
+        <v>26.975000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>75.873000000000005</v>
+      </c>
+      <c r="D46">
+        <v>1601.117</v>
+      </c>
+      <c r="E46">
+        <v>1092.9639999999999</v>
+      </c>
+      <c r="F46">
+        <v>692.97400000000005</v>
+      </c>
+      <c r="G46">
+        <v>2828.6979999999999</v>
+      </c>
+      <c r="H46">
+        <v>6576.3950000000004</v>
+      </c>
+      <c r="I46">
+        <v>496.12700000000001</v>
+      </c>
+      <c r="J46">
+        <v>2619.567</v>
+      </c>
+      <c r="K46">
+        <v>474.77499999999998</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1978.4580000000001</v>
+      </c>
+      <c r="O46">
+        <v>5141.4530000000004</v>
+      </c>
+      <c r="P46">
+        <v>3347.181</v>
+      </c>
+      <c r="Q46">
+        <v>27.265000000000001</v>
+      </c>
+      <c r="R46">
+        <v>41090</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>1434.942</v>
+      </c>
+      <c r="U46">
+        <v>731.202</v>
+      </c>
+      <c r="V46">
+        <v>97.29</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-3.552</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-31.297999999999998</v>
+      </c>
+      <c r="AA46">
+        <v>75.873000000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>39.709000000000003</v>
+      </c>
+      <c r="D47">
+        <v>1557.1469999999999</v>
+      </c>
+      <c r="E47">
+        <v>1127.992</v>
+      </c>
+      <c r="F47">
+        <v>648.88</v>
+      </c>
+      <c r="G47">
+        <v>3037.2750000000001</v>
+      </c>
+      <c r="H47">
+        <v>6768.777</v>
+      </c>
+      <c r="I47">
+        <v>515.36900000000003</v>
+      </c>
+      <c r="J47">
+        <v>2546.7330000000002</v>
+      </c>
+      <c r="K47">
+        <v>530.98</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>2144.2559999999999</v>
+      </c>
+      <c r="O47">
+        <v>5249.6710000000003</v>
+      </c>
+      <c r="P47">
+        <v>3346.4250000000002</v>
+      </c>
+      <c r="Q47">
+        <v>45.058</v>
+      </c>
+      <c r="R47">
+        <v>41182</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1519.106</v>
+      </c>
+      <c r="U47">
+        <v>776.26</v>
+      </c>
+      <c r="V47">
+        <v>81.722999999999999</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-21.738</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-2.9209999999999998</v>
+      </c>
+      <c r="AA47">
+        <v>39.709000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>1262.8230000000001</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>4084.55</v>
+      </c>
+      <c r="H48">
+        <v>7809.5420000000004</v>
+      </c>
+      <c r="I48">
+        <v>582.29399999999998</v>
+      </c>
+      <c r="J48">
+        <v>2543.7069999999999</v>
+      </c>
+      <c r="K48">
+        <v>1099.3610000000001</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>2972.2930000000001</v>
+      </c>
+      <c r="O48">
+        <v>6127.73</v>
+      </c>
+      <c r="P48">
+        <v>3751.4360000000001</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>41274</v>
+      </c>
+      <c r="S48">
+        <v>37000</v>
+      </c>
+      <c r="T48">
+        <v>1681.8119999999999</v>
+      </c>
+      <c r="U48">
+        <v>1089.297</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>37.545999999999999</v>
+      </c>
+      <c r="D49">
+        <v>1475.0630000000001</v>
+      </c>
+      <c r="E49">
+        <v>1206.144</v>
+      </c>
+      <c r="F49">
+        <v>613.84699999999998</v>
+      </c>
+      <c r="G49">
+        <v>3232.8330000000001</v>
+      </c>
+      <c r="H49">
+        <v>6887.64</v>
+      </c>
+      <c r="I49">
+        <v>552.14</v>
+      </c>
+      <c r="J49">
+        <v>2130.6210000000001</v>
+      </c>
+      <c r="K49">
+        <v>945.46500000000003</v>
+      </c>
+      <c r="L49">
+        <v>-86.236000000000004</v>
+      </c>
+      <c r="M49">
+        <v>-1696.788</v>
+      </c>
+      <c r="N49">
+        <v>2453.5349999999999</v>
+      </c>
+      <c r="O49">
+        <v>5181.8530000000001</v>
+      </c>
+      <c r="P49">
+        <v>3188.645</v>
+      </c>
+      <c r="Q49">
+        <v>-570.59699999999998</v>
+      </c>
+      <c r="R49">
+        <v>41364</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>1705.787</v>
+      </c>
+      <c r="U49">
+        <v>518.70000000000005</v>
+      </c>
+      <c r="V49">
+        <v>-79.885999999999996</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-496.66500000000002</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-15.196999999999999</v>
+      </c>
+      <c r="AA49">
+        <v>37.545999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>69.902000000000001</v>
+      </c>
+      <c r="D50">
+        <v>1742.0139999999999</v>
+      </c>
+      <c r="E50">
+        <v>1222.364</v>
+      </c>
+      <c r="F50">
+        <v>723.18700000000001</v>
+      </c>
+      <c r="G50">
+        <v>2799.2249999999999</v>
+      </c>
+      <c r="H50">
+        <v>6348.2879999999996</v>
+      </c>
+      <c r="I50">
+        <v>562.09900000000005</v>
+      </c>
+      <c r="J50">
+        <v>1948.35</v>
+      </c>
+      <c r="K50">
+        <v>680.755</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>2133.096</v>
+      </c>
+      <c r="O50">
+        <v>4636.8389999999999</v>
+      </c>
+      <c r="P50">
+        <v>2702.39</v>
+      </c>
+      <c r="Q50">
+        <v>-33.204999999999998</v>
+      </c>
+      <c r="R50">
+        <v>41455</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>1711.4490000000001</v>
+      </c>
+      <c r="U50">
+        <v>485.495</v>
+      </c>
+      <c r="V50">
+        <v>164.55699999999999</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-243.32400000000001</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>12.916</v>
+      </c>
+      <c r="AA50">
+        <v>69.902000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>94.444000000000003</v>
+      </c>
+      <c r="D51">
+        <v>1733.866</v>
+      </c>
+      <c r="E51">
+        <v>1234</v>
+      </c>
+      <c r="F51">
+        <v>701.51800000000003</v>
+      </c>
+      <c r="G51">
+        <v>2558.96</v>
+      </c>
+      <c r="H51">
+        <v>6177.335</v>
+      </c>
+      <c r="I51">
+        <v>536.74300000000005</v>
+      </c>
+      <c r="J51">
+        <v>1911.816</v>
+      </c>
+      <c r="K51">
+        <v>319.19200000000001</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1842.7270000000001</v>
+      </c>
+      <c r="O51">
+        <v>4341.0280000000002</v>
+      </c>
+      <c r="P51">
+        <v>2331.8000000000002</v>
+      </c>
+      <c r="Q51">
+        <v>17.126000000000001</v>
+      </c>
+      <c r="R51">
+        <v>41547</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>1836.307</v>
+      </c>
+      <c r="U51">
+        <v>502.62099999999998</v>
+      </c>
+      <c r="V51">
+        <v>149.96899999999999</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-99.655000000000001</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>7.5289999999999999</v>
+      </c>
+      <c r="AA51">
+        <v>94.444000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>114.646</v>
+      </c>
+      <c r="D52">
+        <v>2233.8510000000001</v>
+      </c>
+      <c r="E52">
+        <v>1486.489</v>
+      </c>
+      <c r="F52">
+        <v>956.85299999999995</v>
+      </c>
+      <c r="G52">
+        <v>2879.8119999999999</v>
+      </c>
+      <c r="H52">
+        <v>6998.4139999999998</v>
+      </c>
+      <c r="I52">
+        <v>817.51900000000001</v>
+      </c>
+      <c r="J52">
+        <v>1895.924</v>
+      </c>
+      <c r="K52">
+        <v>517.09699999999998</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>2605.7399999999998</v>
+      </c>
+      <c r="O52">
+        <v>5062.4080000000004</v>
+      </c>
+      <c r="P52">
+        <v>2517.2829999999999</v>
+      </c>
+      <c r="Q52">
+        <v>-10.709</v>
+      </c>
+      <c r="R52">
+        <v>41639</v>
+      </c>
+      <c r="S52">
+        <v>44000</v>
+      </c>
+      <c r="T52">
+        <v>1936.0060000000001</v>
+      </c>
+      <c r="U52">
+        <v>491.91199999999998</v>
+      </c>
+      <c r="V52">
+        <v>510.46800000000002</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-26.637</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>31.965</v>
+      </c>
+      <c r="AA52">
+        <v>114.646</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>67.662999999999997</v>
+      </c>
+      <c r="D53">
+        <v>1860.8420000000001</v>
+      </c>
+      <c r="E53">
+        <v>1415.383</v>
+      </c>
+      <c r="F53">
+        <v>699.38199999999995</v>
+      </c>
+      <c r="G53">
+        <v>2762.2370000000001</v>
+      </c>
+      <c r="H53">
+        <v>6843.3580000000002</v>
+      </c>
+      <c r="I53">
+        <v>692.28700000000003</v>
+      </c>
+      <c r="J53">
+        <v>1856.479</v>
+      </c>
+      <c r="K53">
+        <v>666.07600000000002</v>
+      </c>
+      <c r="L53">
+        <v>-401.11200000000002</v>
+      </c>
+      <c r="M53">
+        <v>-10.819000000000001</v>
+      </c>
+      <c r="N53">
+        <v>2379.614</v>
+      </c>
+      <c r="O53">
+        <v>4815.1000000000004</v>
+      </c>
+      <c r="P53">
+        <v>2610.701</v>
+      </c>
+      <c r="Q53">
+        <v>-63.674999999999997</v>
+      </c>
+      <c r="R53">
+        <v>41729</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>2028.258</v>
+      </c>
+      <c r="U53">
+        <v>428.23700000000002</v>
+      </c>
+      <c r="V53">
+        <v>-269.96600000000001</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>208.328</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>5.9080000000000004</v>
+      </c>
+      <c r="AA53">
+        <v>67.662999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>105.464</v>
+      </c>
+      <c r="D54">
+        <v>2126.806</v>
+      </c>
+      <c r="E54">
+        <v>1638.1969999999999</v>
+      </c>
+      <c r="F54">
+        <v>812.33299999999997</v>
+      </c>
+      <c r="G54">
+        <v>3338.471</v>
+      </c>
+      <c r="H54">
+        <v>7471.7709999999997</v>
+      </c>
+      <c r="I54">
+        <v>688.69399999999996</v>
+      </c>
+      <c r="J54">
+        <v>1861.903</v>
+      </c>
+      <c r="K54">
+        <v>1074.037</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>2875.9639999999999</v>
+      </c>
+      <c r="O54">
+        <v>5297.4960000000001</v>
+      </c>
+      <c r="P54">
+        <v>3001.6950000000002</v>
+      </c>
+      <c r="Q54">
+        <v>-46.371000000000002</v>
+      </c>
+      <c r="R54">
+        <v>41820</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>2174.2750000000001</v>
+      </c>
+      <c r="U54">
+        <v>381.86599999999999</v>
+      </c>
+      <c r="V54">
+        <v>45.981999999999999</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-97.605000000000004</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-14.911</v>
+      </c>
+      <c r="AA54">
+        <v>105.464</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>107.099</v>
+      </c>
+      <c r="D55">
+        <v>2275.076</v>
+      </c>
+      <c r="E55">
+        <v>1608.6279999999999</v>
+      </c>
+      <c r="F55">
+        <v>846.09</v>
+      </c>
+      <c r="G55">
+        <v>3461.0369999999998</v>
+      </c>
+      <c r="H55">
+        <v>7529.9539999999997</v>
+      </c>
+      <c r="I55">
+        <v>710.40800000000002</v>
+      </c>
+      <c r="J55">
+        <v>2110.0500000000002</v>
+      </c>
+      <c r="K55">
+        <v>785.37</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>2677.009</v>
+      </c>
+      <c r="O55">
+        <v>5347.116</v>
+      </c>
+      <c r="P55">
+        <v>2960.942</v>
+      </c>
+      <c r="Q55">
+        <v>233.49199999999999</v>
+      </c>
+      <c r="R55">
+        <v>41912</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>2182.8380000000002</v>
+      </c>
+      <c r="U55">
+        <v>615.35799999999995</v>
+      </c>
+      <c r="V55">
+        <v>292.46199999999999</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>71.433999999999997</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>24.251000000000001</v>
+      </c>
+      <c r="AA55">
+        <v>107.099</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>204.27699999999999</v>
+      </c>
+      <c r="D56">
+        <v>2787.194</v>
+      </c>
+      <c r="E56">
+        <v>1736.229</v>
+      </c>
+      <c r="F56">
+        <v>1080.8510000000001</v>
+      </c>
+      <c r="G56">
+        <v>3371.7689999999998</v>
+      </c>
+      <c r="H56">
+        <v>7568.01</v>
+      </c>
+      <c r="I56">
+        <v>827.53</v>
+      </c>
+      <c r="J56">
+        <v>1808.605</v>
+      </c>
+      <c r="K56">
+        <v>506.05</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>2928.7649999999999</v>
+      </c>
+      <c r="O56">
+        <v>5266.6120000000001</v>
+      </c>
+      <c r="P56">
+        <v>2357.0619999999999</v>
+      </c>
+      <c r="Q56">
+        <v>125.526</v>
+      </c>
+      <c r="R56">
+        <v>42004</v>
+      </c>
+      <c r="S56">
+        <v>52000</v>
+      </c>
+      <c r="T56">
+        <v>2301.3980000000001</v>
+      </c>
+      <c r="U56">
+        <v>740.88400000000001</v>
+      </c>
+      <c r="V56">
+        <v>593.30200000000002</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-414.226</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>28.170999999999999</v>
+      </c>
+      <c r="AA56">
+        <v>204.27699999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>92.936999999999998</v>
+      </c>
+      <c r="D57">
+        <v>2052.5030000000002</v>
+      </c>
+      <c r="E57">
+        <v>1537.1</v>
+      </c>
+      <c r="F57">
+        <v>761.726</v>
+      </c>
+      <c r="G57">
+        <v>3593.8789999999999</v>
+      </c>
+      <c r="H57">
+        <v>7625.66</v>
+      </c>
+      <c r="I57">
+        <v>702.125</v>
+      </c>
+      <c r="J57">
+        <v>1762.7940000000001</v>
+      </c>
+      <c r="K57">
+        <v>1175.9069999999999</v>
+      </c>
+      <c r="L57">
+        <v>-158.512</v>
+      </c>
+      <c r="M57">
+        <v>-645.61300000000006</v>
+      </c>
+      <c r="N57">
+        <v>2972.989</v>
+      </c>
+      <c r="O57">
+        <v>5320.6390000000001</v>
+      </c>
+      <c r="P57">
+        <v>2977.25</v>
+      </c>
+      <c r="Q57">
+        <v>-361.85599999999999</v>
+      </c>
+      <c r="R57">
+        <v>42094</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>2305.0210000000002</v>
+      </c>
+      <c r="U57">
+        <v>379.02800000000002</v>
+      </c>
+      <c r="V57">
+        <v>-179.85</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-60.435000000000002</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>13.557</v>
+      </c>
+      <c r="AA57">
+        <v>92.936999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>125.029</v>
+      </c>
+      <c r="D58">
+        <v>2390.5059999999999</v>
+      </c>
+      <c r="E58">
+        <v>1604.62</v>
+      </c>
+      <c r="F58">
+        <v>902.53200000000004</v>
+      </c>
+      <c r="G58">
+        <v>3342.9560000000001</v>
+      </c>
+      <c r="H58">
+        <v>7460.259</v>
+      </c>
+      <c r="I58">
+        <v>764.524</v>
+      </c>
+      <c r="J58">
+        <v>1759.4559999999999</v>
+      </c>
+      <c r="K58">
+        <v>744.48699999999997</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>2594.7739999999999</v>
+      </c>
+      <c r="O58">
+        <v>4956.7309999999998</v>
+      </c>
+      <c r="P58">
+        <v>2519.462</v>
+      </c>
+      <c r="Q58">
+        <v>-42.606000000000002</v>
+      </c>
+      <c r="R58">
+        <v>42185</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>2503.5279999999998</v>
+      </c>
+      <c r="U58">
+        <v>336.42200000000003</v>
+      </c>
+      <c r="V58">
+        <v>137.65899999999999</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>-120.03400000000001</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-12.749000000000001</v>
+      </c>
+      <c r="AA58">
+        <v>125.029</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>149.12299999999999</v>
+      </c>
+      <c r="D59">
+        <v>2712.5590000000002</v>
+      </c>
+      <c r="E59">
+        <v>2275.0250000000001</v>
+      </c>
+      <c r="F59">
+        <v>938.899</v>
+      </c>
+      <c r="G59">
+        <v>3979.6469999999999</v>
+      </c>
+      <c r="H59">
+        <v>9555.4639999999999</v>
+      </c>
+      <c r="I59">
+        <v>1320.325</v>
+      </c>
+      <c r="J59">
+        <v>2683.7179999999998</v>
+      </c>
+      <c r="K59">
+        <v>997.48800000000006</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>3604.2629999999999</v>
+      </c>
+      <c r="O59">
+        <v>6965.9390000000003</v>
+      </c>
+      <c r="P59">
+        <v>3714.8359999999998</v>
+      </c>
+      <c r="Q59">
+        <v>103.935</v>
+      </c>
+      <c r="R59">
+        <v>42277</v>
+      </c>
+      <c r="S59">
+        <v>70000</v>
+      </c>
+      <c r="T59">
+        <v>2589.5250000000001</v>
+      </c>
+      <c r="U59">
+        <v>440.35700000000003</v>
+      </c>
+      <c r="V59">
+        <v>184.601</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>1390.6389999999999</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-2.718</v>
+      </c>
+      <c r="AA59">
+        <v>149.12299999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>180.04300000000001</v>
+      </c>
+      <c r="D60">
+        <v>3700.2420000000002</v>
+      </c>
+      <c r="E60">
+        <v>2471.7399999999998</v>
+      </c>
+      <c r="F60">
+        <v>1188.021</v>
+      </c>
+      <c r="G60">
+        <v>5305.223</v>
+      </c>
+      <c r="H60">
+        <v>11017.942999999999</v>
+      </c>
+      <c r="I60">
+        <v>1484.1189999999999</v>
+      </c>
+      <c r="J60">
+        <v>2666.6129999999998</v>
+      </c>
+      <c r="K60">
+        <v>1750.797</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>4994.1570000000002</v>
+      </c>
+      <c r="O60">
+        <v>8258.8729999999996</v>
+      </c>
+      <c r="P60">
+        <v>4451.8379999999997</v>
+      </c>
+      <c r="Q60">
+        <v>100.04600000000001</v>
+      </c>
+      <c r="R60">
+        <v>42369</v>
+      </c>
+      <c r="S60">
+        <v>70000</v>
+      </c>
+      <c r="T60">
+        <v>2759.07</v>
+      </c>
+      <c r="U60">
+        <v>540.40300000000002</v>
+      </c>
+      <c r="V60">
+        <v>509.48700000000002</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>-420.62200000000001</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>120.56399999999999</v>
+      </c>
+      <c r="AA60">
+        <v>180.04300000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>82.167000000000002</v>
+      </c>
+      <c r="D61">
+        <v>2846.7339999999999</v>
+      </c>
+      <c r="E61">
+        <v>2344.8249999999998</v>
+      </c>
+      <c r="F61">
+        <v>833.12099999999998</v>
+      </c>
+      <c r="G61">
+        <v>4086.8960000000002</v>
+      </c>
+      <c r="H61">
+        <v>9835.1350000000002</v>
+      </c>
+      <c r="I61">
+        <v>1351.0619999999999</v>
+      </c>
+      <c r="J61">
+        <v>2658.645</v>
+      </c>
+      <c r="K61">
+        <v>994.39300000000003</v>
+      </c>
+      <c r="L61">
+        <v>-285</v>
+      </c>
+      <c r="M61">
+        <v>-9.7270000000000003</v>
+      </c>
+      <c r="N61">
+        <v>3696.42</v>
+      </c>
+      <c r="O61">
+        <v>6968.4369999999999</v>
+      </c>
+      <c r="P61">
+        <v>3693.1</v>
+      </c>
+      <c r="Q61">
+        <v>-51.173999999999999</v>
+      </c>
+      <c r="R61">
+        <v>42460</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>2866.6979999999999</v>
+      </c>
+      <c r="U61">
+        <v>489.22899999999998</v>
+      </c>
+      <c r="V61">
+        <v>-328.64</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>272.31400000000002</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>46.901000000000003</v>
+      </c>
+      <c r="AA61">
+        <v>82.167000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>121.66800000000001</v>
+      </c>
+      <c r="D62">
+        <v>3207.5369999999998</v>
+      </c>
+      <c r="E62">
+        <v>2373.1570000000002</v>
+      </c>
+      <c r="F62">
+        <v>971.10400000000004</v>
+      </c>
+      <c r="G62">
+        <v>4246.0810000000001</v>
+      </c>
+      <c r="H62">
+        <v>9922.5720000000001</v>
+      </c>
+      <c r="I62">
+        <v>1381.8019999999999</v>
+      </c>
+      <c r="J62">
+        <v>2647.777</v>
+      </c>
+      <c r="K62">
+        <v>995.31100000000004</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>3742.6489999999999</v>
+      </c>
+      <c r="O62">
+        <v>7018.8019999999997</v>
+      </c>
+      <c r="P62">
+        <v>3685.634</v>
+      </c>
+      <c r="Q62">
+        <v>-57.460999999999999</v>
+      </c>
+      <c r="R62">
+        <v>42551</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>2903.77</v>
+      </c>
+      <c r="U62">
+        <v>431.76799999999997</v>
+      </c>
+      <c r="V62">
+        <v>118.623</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-130.82599999999999</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>17.657</v>
+      </c>
+      <c r="AA62">
+        <v>121.66800000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>104.163</v>
+      </c>
+      <c r="D63">
+        <v>3193.4870000000001</v>
+      </c>
+      <c r="E63">
+        <v>2399.1610000000001</v>
+      </c>
+      <c r="F63">
+        <v>955.404</v>
+      </c>
+      <c r="G63">
+        <v>5055.4769999999999</v>
+      </c>
+      <c r="H63">
+        <v>10776.77</v>
+      </c>
+      <c r="I63">
+        <v>1365.528</v>
+      </c>
+      <c r="J63">
+        <v>2633.7710000000002</v>
+      </c>
+      <c r="K63">
+        <v>1702.107</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>4566.8639999999996</v>
+      </c>
+      <c r="O63">
+        <v>7795.2669999999998</v>
+      </c>
+      <c r="P63">
+        <v>4380.9049999999997</v>
+      </c>
+      <c r="Q63">
+        <v>14.577999999999999</v>
+      </c>
+      <c r="R63">
+        <v>42643</v>
+      </c>
+      <c r="S63">
+        <v>70000</v>
+      </c>
+      <c r="T63">
+        <v>2981.5030000000002</v>
+      </c>
+      <c r="U63">
+        <v>446.346</v>
+      </c>
+      <c r="V63">
+        <v>156.828</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-142.327</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-4.1669999999999998</v>
+      </c>
+      <c r="AA63">
+        <v>104.163</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>263.97500000000002</v>
+      </c>
+      <c r="D64">
+        <v>3823.8310000000001</v>
+      </c>
+      <c r="E64">
+        <v>2605.6019999999999</v>
+      </c>
+      <c r="F64">
+        <v>1220.7329999999999</v>
+      </c>
+      <c r="G64">
+        <v>5122.45</v>
+      </c>
+      <c r="H64">
+        <v>10779.587</v>
+      </c>
+      <c r="I64">
+        <v>1417.1379999999999</v>
+      </c>
+      <c r="J64">
+        <v>2561.326</v>
+      </c>
+      <c r="K64">
+        <v>1254.6690000000001</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>4525.4290000000001</v>
+      </c>
+      <c r="O64">
+        <v>7722.3419999999996</v>
+      </c>
+      <c r="P64">
+        <v>3816.0059999999999</v>
+      </c>
+      <c r="Q64">
+        <v>316.23</v>
+      </c>
+      <c r="R64">
+        <v>42735</v>
+      </c>
+      <c r="S64">
+        <v>75000</v>
+      </c>
+      <c r="T64">
+        <v>3057.2449999999999</v>
+      </c>
+      <c r="U64">
+        <v>762.57600000000002</v>
+      </c>
+      <c r="V64">
+        <v>503.50400000000002</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-198.804</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>83.629000000000005</v>
+      </c>
+      <c r="AA64">
+        <v>263.97500000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>137.02000000000001</v>
+      </c>
+      <c r="D65">
+        <v>4050.9659999999999</v>
+      </c>
+      <c r="E65">
+        <v>2499.1149999999998</v>
+      </c>
+      <c r="F65">
+        <v>904.48900000000003</v>
+      </c>
+      <c r="G65">
+        <v>4245.46</v>
+      </c>
+      <c r="H65">
+        <v>9927.1119999999992</v>
+      </c>
+      <c r="I65">
+        <v>1298.4839999999999</v>
+      </c>
+      <c r="J65">
+        <v>2559.5990000000002</v>
+      </c>
+      <c r="K65">
+        <v>791.46900000000005</v>
+      </c>
+      <c r="L65">
+        <v>-146</v>
+      </c>
+      <c r="M65">
+        <v>-3.1789999999999998</v>
+      </c>
+      <c r="N65">
+        <v>3473.18</v>
+      </c>
+      <c r="O65">
+        <v>6668.8729999999996</v>
+      </c>
+      <c r="P65">
+        <v>3351.08</v>
+      </c>
+      <c r="Q65">
+        <v>-239.08500000000001</v>
+      </c>
+      <c r="R65">
+        <v>42825</v>
+      </c>
+      <c r="S65">
+        <v>75000</v>
+      </c>
+      <c r="T65">
+        <v>3258.239</v>
+      </c>
+      <c r="U65">
+        <v>533.28099999999995</v>
+      </c>
+      <c r="V65">
+        <v>-321.39800000000002</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>109.42700000000001</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-7.7610000000000001</v>
+      </c>
+      <c r="AA65">
+        <v>137.02000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>201.77699999999999</v>
+      </c>
+      <c r="D66">
+        <v>4439.5709999999999</v>
+      </c>
+      <c r="E66">
+        <v>2653.346</v>
+      </c>
+      <c r="F66">
+        <v>1030.0309999999999</v>
+      </c>
+      <c r="G66">
+        <v>4824.3360000000002</v>
+      </c>
+      <c r="H66">
+        <v>10606.218000000001</v>
+      </c>
+      <c r="I66">
+        <v>1402.9010000000001</v>
+      </c>
+      <c r="J66">
+        <v>2550.404</v>
+      </c>
+      <c r="K66">
+        <v>1054.9860000000001</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>3797.55</v>
+      </c>
+      <c r="O66">
+        <v>7023.192</v>
+      </c>
+      <c r="P66">
+        <v>3605.4009999999998</v>
+      </c>
+      <c r="Q66">
+        <v>18.074000000000002</v>
+      </c>
+      <c r="R66">
+        <v>42916</v>
+      </c>
+      <c r="S66">
+        <v>75000</v>
+      </c>
+      <c r="T66">
+        <v>3583.0259999999998</v>
+      </c>
+      <c r="U66">
+        <v>535.68100000000004</v>
+      </c>
+      <c r="V66">
+        <v>203.96100000000001</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-139.13399999999999</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-3.3860000000000001</v>
+      </c>
+      <c r="AA66">
+        <v>201.77699999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>199.08799999999999</v>
+      </c>
+      <c r="D67">
+        <v>4638.5959999999995</v>
+      </c>
+      <c r="E67">
+        <v>2843.1260000000002</v>
+      </c>
+      <c r="F67">
+        <v>1040.317</v>
+      </c>
+      <c r="G67">
+        <v>5804.7340000000004</v>
+      </c>
+      <c r="H67">
+        <v>11652.013999999999</v>
+      </c>
+      <c r="I67">
+        <v>1485.06</v>
+      </c>
+      <c r="J67">
+        <v>2551.5680000000002</v>
+      </c>
+      <c r="K67">
+        <v>1416.269</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>4551.3770000000004</v>
+      </c>
+      <c r="O67">
+        <v>7800.1779999999999</v>
+      </c>
+      <c r="P67">
+        <v>3967.8470000000002</v>
+      </c>
+      <c r="Q67">
+        <v>429.99799999999999</v>
+      </c>
+      <c r="R67">
+        <v>43008</v>
+      </c>
+      <c r="S67">
+        <v>75000</v>
+      </c>
+      <c r="T67">
+        <v>3851.8359999999998</v>
+      </c>
+      <c r="U67">
+        <v>955.60500000000002</v>
+      </c>
+      <c r="V67">
+        <v>503.03</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>-37.780999999999999</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>9.8789999999999996</v>
+      </c>
+      <c r="AA67">
+        <v>199.08799999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>159.22399999999999</v>
+      </c>
+      <c r="D68">
+        <v>5499.6540000000005</v>
+      </c>
+      <c r="E68">
+        <v>3385.3420000000001</v>
+      </c>
+      <c r="F68">
+        <v>1348.8510000000001</v>
+      </c>
+      <c r="G68">
+        <v>5630.5839999999998</v>
+      </c>
+      <c r="H68">
+        <v>11718.396000000001</v>
+      </c>
+      <c r="I68">
+        <v>1550.472</v>
+      </c>
+      <c r="J68">
+        <v>2004.403</v>
+      </c>
+      <c r="K68">
+        <v>910.78200000000004</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>4712.9440000000004</v>
+      </c>
+      <c r="O68">
+        <v>7543.7820000000002</v>
+      </c>
+      <c r="P68">
+        <v>2915.1930000000002</v>
+      </c>
+      <c r="Q68">
+        <v>-215.58</v>
+      </c>
+      <c r="R68">
+        <v>43100</v>
+      </c>
+      <c r="S68">
+        <v>80000</v>
+      </c>
+      <c r="T68">
+        <v>4174.6139999999996</v>
+      </c>
+      <c r="U68">
+        <v>751.774</v>
+      </c>
+      <c r="V68">
+        <v>508.81799999999998</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-560.25400000000002</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-7.2549999999999999</v>
+      </c>
+      <c r="AA68">
+        <v>159.22399999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>150.28800000000001</v>
+      </c>
+      <c r="D69">
+        <v>4673.9520000000002</v>
+      </c>
+      <c r="E69">
+        <v>3321.6869999999999</v>
+      </c>
+      <c r="F69">
+        <v>1053.991</v>
+      </c>
+      <c r="G69">
+        <v>5754.3</v>
+      </c>
+      <c r="H69">
+        <v>11907.441999999999</v>
+      </c>
+      <c r="I69">
+        <v>1463.2339999999999</v>
+      </c>
+      <c r="J69">
+        <v>1761.288</v>
+      </c>
+      <c r="K69">
+        <v>1611.021</v>
+      </c>
+      <c r="L69">
+        <v>-435</v>
+      </c>
+      <c r="M69">
+        <v>-820</v>
+      </c>
+      <c r="N69">
+        <v>4869.6549999999997</v>
+      </c>
+      <c r="O69">
+        <v>7488.768</v>
+      </c>
+      <c r="P69">
+        <v>3372.36</v>
+      </c>
+      <c r="Q69">
+        <v>-103.006</v>
+      </c>
+      <c r="R69">
+        <v>43190</v>
+      </c>
+      <c r="S69">
+        <v>80000</v>
+      </c>
+      <c r="T69">
+        <v>4418.674</v>
+      </c>
+      <c r="U69">
+        <v>642.85400000000004</v>
+      </c>
+      <c r="V69">
+        <v>-249.958</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>181.345</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-11.048999999999999</v>
+      </c>
+      <c r="AA69">
+        <v>150.28800000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>228.667</v>
+      </c>
+      <c r="D70">
+        <v>5111.4340000000002</v>
+      </c>
+      <c r="E70">
+        <v>3433.7939999999999</v>
+      </c>
+      <c r="F70">
+        <v>1152.6859999999999</v>
+      </c>
+      <c r="G70">
+        <v>6106.71</v>
+      </c>
+      <c r="H70">
+        <v>12535.457</v>
+      </c>
+      <c r="I70">
+        <v>1592.53</v>
+      </c>
+      <c r="J70">
+        <v>1764.9849999999999</v>
+      </c>
+      <c r="K70">
+        <v>2069.607</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>5381.1350000000002</v>
+      </c>
+      <c r="O70">
+        <v>8018.5860000000002</v>
+      </c>
+      <c r="P70">
+        <v>3836.058</v>
+      </c>
+      <c r="Q70">
+        <v>-118.467</v>
+      </c>
+      <c r="R70">
+        <v>43281</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>4516.8710000000001</v>
+      </c>
+      <c r="U70">
+        <v>531.48099999999999</v>
+      </c>
+      <c r="V70">
+        <v>157.89599999999999</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>84.697000000000003</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-1.1890000000000001</v>
+      </c>
+      <c r="AA70">
+        <v>228.667</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>290.46899999999999</v>
+      </c>
+      <c r="D71">
+        <v>5260.9539999999997</v>
+      </c>
+      <c r="E71">
+        <v>3570.672</v>
+      </c>
+      <c r="F71">
+        <v>1162.05</v>
+      </c>
+      <c r="G71">
+        <v>6378.3140000000003</v>
+      </c>
+      <c r="H71">
+        <v>12977.116</v>
+      </c>
+      <c r="I71">
+        <v>1627.7829999999999</v>
+      </c>
+      <c r="J71">
+        <v>1761.403</v>
+      </c>
+      <c r="K71">
+        <v>1720.7560000000001</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>5485.7809999999999</v>
+      </c>
+      <c r="O71">
+        <v>8204.7250000000004</v>
+      </c>
+      <c r="P71">
+        <v>3486.1469999999999</v>
+      </c>
+      <c r="Q71">
+        <v>24.591999999999999</v>
+      </c>
+      <c r="R71">
+        <v>43373</v>
+      </c>
+      <c r="S71">
+        <v>80000</v>
+      </c>
+      <c r="T71">
+        <v>4772.3909999999996</v>
+      </c>
+      <c r="U71">
+        <v>550.46799999999996</v>
+      </c>
+      <c r="V71">
+        <v>594.37300000000005</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>-479.52199999999999</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>14.975</v>
+      </c>
+      <c r="AA71">
+        <v>290.46899999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>393.79500000000002</v>
+      </c>
+      <c r="D72">
+        <v>6293.7479999999996</v>
+      </c>
+      <c r="E72">
+        <v>3975.6109999999999</v>
+      </c>
+      <c r="F72">
+        <v>1522.1489999999999</v>
+      </c>
+      <c r="G72">
+        <v>6754.21</v>
+      </c>
+      <c r="H72">
+        <v>13456.793</v>
+      </c>
+      <c r="I72">
+        <v>1878.127</v>
+      </c>
+      <c r="J72">
+        <v>1767.26</v>
+      </c>
+      <c r="K72">
+        <v>1328.761</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>5803.38</v>
+      </c>
+      <c r="O72">
+        <v>8446.8909999999996</v>
+      </c>
+      <c r="P72">
+        <v>3100.2370000000001</v>
+      </c>
+      <c r="Q72">
+        <v>236.006</v>
+      </c>
+      <c r="R72">
+        <v>43465</v>
+      </c>
+      <c r="S72">
+        <v>90000</v>
+      </c>
+      <c r="T72">
+        <v>5009.902</v>
+      </c>
+      <c r="U72">
+        <v>777.21900000000005</v>
+      </c>
+      <c r="V72">
+        <v>628.93799999999999</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>-293.12</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-26.486000000000001</v>
+      </c>
+      <c r="AA72">
+        <v>393.79500000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>164.40899999999999</v>
+      </c>
+      <c r="D73">
+        <v>5135.51</v>
+      </c>
+      <c r="E73">
+        <v>4096.8770000000004</v>
+      </c>
+      <c r="F73">
+        <v>1113.4760000000001</v>
+      </c>
+      <c r="G73">
+        <v>6996.86</v>
+      </c>
+      <c r="H73">
+        <v>14693.008</v>
+      </c>
+      <c r="I73">
+        <v>1803.8409999999999</v>
+      </c>
+      <c r="J73">
+        <v>1760.181</v>
+      </c>
+      <c r="K73">
+        <v>1897.2070000000001</v>
+      </c>
+      <c r="L73">
+        <v>-471</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>6010.0820000000003</v>
+      </c>
+      <c r="O73">
+        <v>9488.7919999999995</v>
+      </c>
+      <c r="P73">
+        <v>4874.7250000000004</v>
+      </c>
+      <c r="Q73">
+        <v>-176.27600000000001</v>
+      </c>
+      <c r="R73">
+        <v>43555</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>5204.2160000000003</v>
+      </c>
+      <c r="U73">
+        <v>604.952</v>
+      </c>
+      <c r="V73">
+        <v>-392.57499999999999</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>300.02800000000002</v>
+      </c>
+      <c r="Y73">
+        <v>1003.564</v>
+      </c>
+      <c r="Z73">
+        <v>-17.588000000000001</v>
+      </c>
+      <c r="AA73">
+        <v>164.40899999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>223.73099999999999</v>
+      </c>
+      <c r="D74">
+        <v>5714.0730000000003</v>
+      </c>
+      <c r="E74">
+        <v>4324.25</v>
+      </c>
+      <c r="F74">
+        <v>1268.2829999999999</v>
+      </c>
+      <c r="G74">
+        <v>6885.2169999999996</v>
+      </c>
+      <c r="H74">
+        <v>14719.135</v>
+      </c>
+      <c r="I74">
+        <v>2046.345</v>
+      </c>
+      <c r="J74">
+        <v>1766.5640000000001</v>
+      </c>
+      <c r="K74">
+        <v>1579.9880000000001</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>5887.4489999999996</v>
+      </c>
+      <c r="O74">
+        <v>9328.6049999999996</v>
+      </c>
+      <c r="P74">
+        <v>4586.7269999999999</v>
+      </c>
+      <c r="Q74">
+        <v>-74.442999999999998</v>
+      </c>
+      <c r="R74">
+        <v>43646</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>5390.53</v>
+      </c>
+      <c r="U74">
+        <v>535.61800000000005</v>
+      </c>
+      <c r="V74">
+        <v>99.290999999999997</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>-114.054</v>
+      </c>
+      <c r="Y74">
+        <v>1037.229</v>
+      </c>
+      <c r="Z74">
+        <v>-7.3259999999999996</v>
+      </c>
+      <c r="AA74">
+        <v>223.73099999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>256.59899999999999</v>
+      </c>
+      <c r="D75">
+        <v>5925.1009999999997</v>
+      </c>
+      <c r="E75">
+        <v>4406.366</v>
+      </c>
+      <c r="F75">
+        <v>1237.7650000000001</v>
+      </c>
+      <c r="G75">
+        <v>7058.835</v>
+      </c>
+      <c r="H75">
+        <v>15040.941999999999</v>
+      </c>
+      <c r="I75">
+        <v>2049.1909999999998</v>
+      </c>
+      <c r="J75">
+        <v>1748.2639999999999</v>
+      </c>
+      <c r="K75">
+        <v>1404.6679999999999</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>6027.97</v>
+      </c>
+      <c r="O75">
+        <v>9481.9619999999995</v>
+      </c>
+      <c r="P75">
+        <v>4438.326</v>
+      </c>
+      <c r="Q75">
+        <v>89.08</v>
+      </c>
+      <c r="R75">
+        <v>43738</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>5558.98</v>
+      </c>
+      <c r="U75">
+        <v>577.46</v>
+      </c>
+      <c r="V75">
+        <v>468.03300000000002</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>-237.93700000000001</v>
+      </c>
+      <c r="Y75">
+        <v>1090.069</v>
+      </c>
+      <c r="Z75">
+        <v>-38.774000000000001</v>
+      </c>
+      <c r="AA75">
+        <v>256.59899999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>637.61800000000005</v>
+      </c>
+      <c r="D76">
+        <v>7119.4070000000002</v>
+      </c>
+      <c r="E76">
+        <v>4794.6859999999997</v>
+      </c>
+      <c r="F76">
+        <v>1585.5540000000001</v>
+      </c>
+      <c r="G76">
+        <v>7534.4639999999999</v>
+      </c>
+      <c r="H76">
+        <v>16197.196</v>
+      </c>
+      <c r="I76">
+        <v>2394.4839999999999</v>
+      </c>
+      <c r="J76">
+        <v>1761.2449999999999</v>
+      </c>
+      <c r="K76">
+        <v>981.70899999999995</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>6436.451</v>
+      </c>
+      <c r="O76">
+        <v>9924.0840000000007</v>
+      </c>
+      <c r="P76">
+        <v>4066.1559999999999</v>
+      </c>
+      <c r="Q76">
+        <v>391.44</v>
+      </c>
+      <c r="R76">
+        <v>43830</v>
+      </c>
+      <c r="S76">
+        <v>100000</v>
+      </c>
+      <c r="T76">
+        <v>6273.1120000000001</v>
+      </c>
+      <c r="U76">
+        <v>971.78099999999995</v>
+      </c>
+      <c r="V76">
+        <v>1048.6310000000001</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>-219.98599999999999</v>
+      </c>
+      <c r="Y76">
+        <v>1117.759</v>
+      </c>
+      <c r="Z76">
+        <v>-8.9700000000000006</v>
+      </c>
+      <c r="AA76">
+        <v>637.61800000000005</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>172.19499999999999</v>
+      </c>
+      <c r="D77">
+        <v>5889.1679999999997</v>
+      </c>
+      <c r="E77">
+        <v>4592.2520000000004</v>
+      </c>
+      <c r="F77">
+        <v>1176.4939999999999</v>
+      </c>
+      <c r="G77">
+        <v>7263.5870000000004</v>
+      </c>
+      <c r="H77">
+        <v>15680.263999999999</v>
+      </c>
+      <c r="I77">
+        <v>2327.9029999999998</v>
+      </c>
+      <c r="J77">
+        <v>1754.518</v>
+      </c>
+      <c r="K77">
+        <v>1264.04</v>
+      </c>
+      <c r="L77">
+        <v>-331.70100000000002</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>6065.4260000000004</v>
+      </c>
+      <c r="O77">
+        <v>9510.7170000000006</v>
+      </c>
+      <c r="P77">
+        <v>4349.0749999999998</v>
+      </c>
+      <c r="Q77">
+        <v>-361.05</v>
+      </c>
+      <c r="R77">
+        <v>43921</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>6169.5469999999996</v>
+      </c>
+      <c r="U77">
+        <v>628.45100000000002</v>
+      </c>
+      <c r="V77">
+        <v>-136.28100000000001</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>-93.905000000000001</v>
+      </c>
+      <c r="Y77">
+        <v>1108.7239999999999</v>
+      </c>
+      <c r="Z77">
+        <v>-13.161</v>
+      </c>
+      <c r="AA77">
+        <v>172.19499999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>81.897000000000006</v>
+      </c>
+      <c r="D78">
+        <v>5381.384</v>
+      </c>
+      <c r="E78">
+        <v>4423.6850000000004</v>
+      </c>
+      <c r="F78">
+        <v>989.24699999999996</v>
+      </c>
+      <c r="G78">
+        <v>7189.4350000000004</v>
+      </c>
+      <c r="H78">
+        <v>15700.414000000001</v>
+      </c>
+      <c r="I78">
+        <v>2217.1179999999999</v>
+      </c>
+      <c r="J78">
+        <v>1763.1130000000001</v>
+      </c>
+      <c r="K78">
+        <v>1210.1890000000001</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>5852.8980000000001</v>
+      </c>
+      <c r="O78">
+        <v>9415.3629999999994</v>
+      </c>
+      <c r="P78">
+        <v>4384.277</v>
+      </c>
+      <c r="Q78">
+        <v>581.03899999999999</v>
+      </c>
+      <c r="R78">
+        <v>44012</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>6285.0510000000004</v>
+      </c>
+      <c r="U78">
+        <v>1214.213</v>
+      </c>
+      <c r="V78">
+        <v>142.34399999999999</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>470.86799999999999</v>
+      </c>
+      <c r="Y78">
+        <v>1181.0619999999999</v>
+      </c>
+      <c r="Z78">
+        <v>25.965</v>
+      </c>
+      <c r="AA78">
+        <v>81.897000000000006</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>184.13200000000001</v>
+      </c>
+      <c r="D79">
+        <v>5645.1419999999998</v>
+      </c>
+      <c r="E79">
+        <v>4280.0290000000005</v>
+      </c>
+      <c r="F79">
+        <v>1096.2629999999999</v>
+      </c>
+      <c r="G79">
+        <v>7771.375</v>
+      </c>
+      <c r="H79">
+        <v>16347.075999999999</v>
+      </c>
+      <c r="I79">
+        <v>2408.2449999999999</v>
+      </c>
+      <c r="J79">
+        <v>1783.212</v>
+      </c>
+      <c r="K79">
+        <v>1196.8620000000001</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>6152.2719999999999</v>
+      </c>
+      <c r="O79">
+        <v>9752.7739999999994</v>
+      </c>
+      <c r="P79">
+        <v>4396.357</v>
+      </c>
+      <c r="Q79">
+        <v>332.82299999999998</v>
+      </c>
+      <c r="R79">
+        <v>44104</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>6594.3019999999997</v>
+      </c>
+      <c r="U79">
+        <v>1481.924</v>
+      </c>
+      <c r="V79">
+        <v>854.57899999999995</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>-488.28699999999998</v>
+      </c>
+      <c r="Y79">
+        <v>1187.336</v>
+      </c>
+      <c r="Z79">
+        <v>-18.452999999999999</v>
+      </c>
+      <c r="AA79">
+        <v>184.13200000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
         <v>313.76499999999999</v>
       </c>
-      <c r="D42">
+      <c r="D80">
         <v>6910.5010000000002</v>
       </c>
-      <c r="E42">
+      <c r="E80">
         <v>4713.1450000000004</v>
       </c>
-      <c r="F42">
+      <c r="F80">
         <v>1566.0709999999999</v>
       </c>
-      <c r="G42">
+      <c r="G80">
         <v>8845.6309999999994</v>
       </c>
-      <c r="H42">
+      <c r="H80">
         <v>18039.143</v>
       </c>
-      <c r="I42">
+      <c r="I80">
         <v>2678.6390000000001</v>
       </c>
-      <c r="J42">
+      <c r="J80">
         <v>1380.202</v>
       </c>
-      <c r="K42">
+      <c r="K80">
         <v>1389.2940000000001</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
         <v>7143.9830000000002</v>
       </c>
-      <c r="O42">
+      <c r="O80">
         <v>10533.483</v>
       </c>
-      <c r="P42">
+      <c r="P80">
         <v>4214.51</v>
       </c>
-      <c r="Q42">
+      <c r="Q80">
         <v>392.69</v>
       </c>
-      <c r="R42">
+      <c r="R80">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S80">
         <v>100000</v>
       </c>
-      <c r="T42">
+      <c r="T80">
         <v>7505.66</v>
       </c>
-      <c r="U42">
+      <c r="U80">
         <v>1896.1880000000001</v>
       </c>
-      <c r="V42">
+      <c r="V80">
         <v>970.13699999999994</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
         <v>-513.93200000000002</v>
       </c>
-      <c r="Y42">
+      <c r="Y80">
         <v>1195.6759999999999</v>
       </c>
-      <c r="Z42">
+      <c r="Z80">
         <v>-52.029000000000003</v>
       </c>
-      <c r="AA42">
+      <c r="AA80">
         <v>313.76499999999999</v>
       </c>
     </row>
